--- a/data/02_data_extraction/data_extraction_setTR_checkedJS_checkedSD.xlsx
+++ b/data/02_data_extraction/data_extraction_setTR_checkedJS_checkedSD.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyadimri/Library/CloudStorage/Dropbox/GitHub_Repo/GNM_Analysis/data/02_data_extraction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyadimri/Library/CloudStorage/Dropbox/GitHub_Repo/Green_Nest_Material/data/02_data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EAC36B-85A2-1644-BB45-98570F15FBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF18F56-B958-CF4C-B171-0C0899F45CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16760" yWindow="1260" windowWidth="49480" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="66920" windowHeight="24440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP33" authorId="3" shapeId="0" xr:uid="{19BEDA17-76FD-1740-B9AC-18357835D07F}">
+    <comment ref="AP32" authorId="3" shapeId="0" xr:uid="{19BEDA17-76FD-1740-B9AC-18357835D07F}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -104,7 +104,7 @@
     JS/SD/TR for all marked purple </t>
       </text>
     </comment>
-    <comment ref="A54" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A53" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L55" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="L54" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L97" authorId="2" shapeId="0" xr:uid="{E8DE5483-52A9-484C-A7B5-827E4F2B4DEE}">
+    <comment ref="L96" authorId="2" shapeId="0" xr:uid="{E8DE5483-52A9-484C-A7B5-827E4F2B4DEE}">
       <text>
         <r>
           <rPr>
@@ -203,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L100" authorId="2" shapeId="0" xr:uid="{50AC3775-CE51-E84A-8D80-00AC2182285C}">
+    <comment ref="L99" authorId="2" shapeId="0" xr:uid="{50AC3775-CE51-E84A-8D80-00AC2182285C}">
       <text>
         <r>
           <rPr>
@@ -236,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L103" authorId="2" shapeId="0" xr:uid="{EE50DA27-F764-4044-8EDF-418A5BFF1C81}">
+    <comment ref="L102" authorId="2" shapeId="0" xr:uid="{EE50DA27-F764-4044-8EDF-418A5BFF1C81}">
       <text>
         <r>
           <rPr>
@@ -269,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN134" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AN133" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -294,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A135" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="A134" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L135" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="L134" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -343,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A147" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="A146" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3647" uniqueCount="290">
   <si>
     <t>GNM_010</t>
   </si>
@@ -1134,12 +1134,6 @@
     <t>pooled data provided on dispersal distance, try to ask data on recruits (recruits are a good measure of fitness proxy)</t>
   </si>
   <si>
-    <t>dispersal distance (meters) males</t>
-  </si>
-  <si>
-    <t>dispersal distance (meters) females</t>
-  </si>
-  <si>
     <t>Authors say:  "As females are expected to increase their ability in intra-sexual competition for the preferred males in relation to their level of testosterone (Searcy 1988), we predict that females should increase their levels of circulating androgens when receiving high amounts of green plants into their nests.... We predict that the greenery should increase the amount of nesting interferences caused by the increase in aggressiveness between females during nest construction, laying and incubation, leading to an increase in female androgen levels." Therefore, we expect a positive relationship between testosterone and GNM. Females were measured when they started laying (second or third egg) and this measurement would then imply that the testosterone levels are increased due to mate competition so we give it a positive sign.  One measure of testosterone was taken for each female and the levels of testosterone could change considerably within the duration of a day or a few days. Therefore, for consistency with other physiological measuresn like blood glucose levels, we will test this only in a sensitivity analysis.</t>
   </si>
   <si>
@@ -1240,15 +1234,31 @@
   </si>
   <si>
     <t>We decided to exclude the dispersal distance as a fitness proxy as it is often shaped by environmental factors, competition, or habitat availability rather than being an adaptive response directly linked to fitness benefits. We decided to instead use something like recruitment rate instead but then realised that the recruitment rate from this dataset are already reported in GNM_016. We matched the data and it matched 100% so it is the same data. We decided to exclude this</t>
+  </si>
+  <si>
+    <t>Lake_Ammersee_Germany -(South Germany, 48 N 11E)</t>
+  </si>
+  <si>
+    <t>exclude_NA</t>
+  </si>
+  <si>
+    <t>dispersal distance (meters)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1422,30 +1432,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1777,7 +1790,7 @@
   <threadedComment ref="B8" dT="2024-01-24T10:23:48.23" personId="{2A8F6F25-A448-E04F-8D99-4903AD391A1E}" id="{99F79F55-5E21-5A42-9A49-58156955D6F9}" parentId="{306BEA65-F7F4-9940-8E57-841E6767AECE}">
     <text>Exclude it (everyone agreed)</text>
   </threadedComment>
-  <threadedComment ref="AP33" dT="2024-01-09T15:36:39.83" personId="{2A8F6F25-A448-E04F-8D99-4903AD391A1E}" id="{19BEDA17-76FD-1740-B9AC-18357835D07F}">
+  <threadedComment ref="AP32" dT="2024-01-09T15:36:39.83" personId="{2A8F6F25-A448-E04F-8D99-4903AD391A1E}" id="{19BEDA17-76FD-1740-B9AC-18357835D07F}">
     <text xml:space="preserve">JS/SD/TR for all marked purple </text>
   </threadedComment>
 </ThreadedComments>
@@ -1785,10 +1798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DP289"/>
+  <dimension ref="A1:DP288"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AD31" sqref="AD31:AD32"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1944,10 +1957,10 @@
         <v>55</v>
       </c>
       <c r="AW1" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AX1" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:120" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3253,13 +3266,13 @@
         <v>75</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="s">
         <v>81</v>
@@ -3409,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" t="s">
         <v>81</v>
@@ -3553,13 +3566,13 @@
         <v>75</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K12" t="s">
         <v>81</v>
@@ -3709,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K13" t="s">
         <v>81</v>
@@ -3923,13 +3936,13 @@
         <v>75</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K14" t="s">
         <v>81</v>
@@ -4149,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K15" t="s">
         <v>81</v>
@@ -4293,13 +4306,13 @@
         <v>75</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K16" t="s">
         <v>81</v>
@@ -4449,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K17" t="s">
         <v>81</v>
@@ -4506,7 +4519,7 @@
         <v>127</v>
       </c>
       <c r="AC17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AD17" s="11" t="s">
         <v>242</v>
@@ -4593,13 +4606,13 @@
         <v>75</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K18" t="s">
         <v>81</v>
@@ -4656,7 +4669,7 @@
         <v>127</v>
       </c>
       <c r="AC18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AD18" s="11" t="s">
         <v>242</v>
@@ -4808,10 +4821,10 @@
         <v>128</v>
       </c>
       <c r="AC19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AD19" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE19" s="11">
         <v>1</v>
@@ -4897,13 +4910,13 @@
         <v>134</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" t="s">
         <v>83</v>
@@ -4960,10 +4973,10 @@
         <v>128</v>
       </c>
       <c r="AC20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AD20" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE20" s="11">
         <v>1</v>
@@ -5049,13 +5062,13 @@
         <v>134</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>3</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" t="s">
         <v>83</v>
@@ -5112,10 +5125,10 @@
         <v>128</v>
       </c>
       <c r="AC21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AD21" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE21" s="11">
         <v>1</v>
@@ -5264,7 +5277,7 @@
         <v>125</v>
       </c>
       <c r="AC22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AD22" t="s">
         <v>243</v>
@@ -5359,7 +5372,7 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" t="s">
         <v>83</v>
@@ -5416,7 +5429,7 @@
         <v>125</v>
       </c>
       <c r="AC23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AD23" t="s">
         <v>243</v>
@@ -5511,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K24" t="s">
         <v>83</v>
@@ -5568,7 +5581,7 @@
         <v>125</v>
       </c>
       <c r="AC24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AD24" t="s">
         <v>243</v>
@@ -5663,7 +5676,7 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K25" t="s">
         <v>83</v>
@@ -5815,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K26" t="s">
         <v>83</v>
@@ -5967,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K27" t="s">
         <v>83</v>
@@ -6189,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K28" t="s">
         <v>83</v>
@@ -6411,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K29" t="s">
         <v>83</v>
@@ -6633,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K30" t="s">
         <v>83</v>
@@ -6737,8 +6750,8 @@
       <c r="AR30" t="s">
         <v>132</v>
       </c>
-      <c r="AS30" s="19" t="s">
-        <v>285</v>
+      <c r="AS30" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="AT30" t="s">
         <v>130</v>
@@ -6756,200 +6769,200 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:120" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:120" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="7">
         <v>2016</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M31" t="s">
-        <v>56</v>
-      </c>
-      <c r="N31">
+      <c r="M31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="7">
         <v>2</v>
       </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="14">
+      <c r="O31" s="7">
+        <v>1</v>
+      </c>
+      <c r="P31" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="19">
         <v>1055</v>
       </c>
-      <c r="R31" s="14" t="s">
+      <c r="R31" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="S31" s="14">
+      <c r="S31" s="19">
         <v>922.5</v>
       </c>
-      <c r="T31" s="14" t="s">
+      <c r="T31" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="U31" s="14">
+      <c r="U31" s="19">
         <v>9</v>
       </c>
-      <c r="V31" s="14">
+      <c r="V31" s="19">
         <v>395</v>
       </c>
-      <c r="W31" s="14" t="s">
+      <c r="W31" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="X31" s="14">
+      <c r="X31" s="19">
         <v>450</v>
       </c>
-      <c r="Y31" s="14" t="s">
+      <c r="Y31" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="Z31" s="14">
+      <c r="Z31" s="19">
         <v>16</v>
       </c>
-      <c r="AA31" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB31" t="s">
+      <c r="AA31" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB31" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="AC31" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD31" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="AE31" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM31" s="14" t="s">
+      <c r="AC31" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD31" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE31" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM31" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="AN31" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO31" t="s">
+      <c r="AN31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO31" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AP31" t="s">
+      <c r="AP31" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AQ31" s="14" t="s">
+      <c r="AQ31" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="AR31" t="s">
+      <c r="AR31" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AS31" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU31" t="s">
+      <c r="AS31" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU31" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AV31" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW31">
-        <v>1</v>
-      </c>
-      <c r="AX31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:120" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:120" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F32">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M32" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -6957,89 +6970,104 @@
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="Q32" s="14">
-        <v>293.75</v>
-      </c>
-      <c r="R32" s="14" t="s">
+      <c r="Q32" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" t="s">
+        <v>56</v>
+      </c>
+      <c r="S32" t="s">
+        <v>56</v>
+      </c>
+      <c r="T32" t="s">
+        <v>56</v>
+      </c>
+      <c r="U32">
+        <v>20</v>
+      </c>
+      <c r="V32" t="s">
+        <v>56</v>
+      </c>
+      <c r="W32" t="s">
         <v>96</v>
       </c>
-      <c r="S32" s="14">
-        <v>429.56740000000002</v>
-      </c>
-      <c r="T32" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="U32" s="14">
-        <v>18</v>
-      </c>
-      <c r="V32" s="14">
-        <v>743.75</v>
-      </c>
-      <c r="W32" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="X32" s="14">
-        <v>801.04420000000005</v>
-      </c>
-      <c r="Y32" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z32" s="14">
-        <v>30</v>
-      </c>
-      <c r="AA32" s="14" t="s">
-        <v>254</v>
+      <c r="X32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z32">
+        <v>20</v>
+      </c>
+      <c r="AA32" s="15" t="s">
+        <v>181</v>
       </c>
       <c r="AB32" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC32" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD32" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="AE32" s="15" t="s">
-        <v>56</v>
+        <v>125</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD32" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="AG32" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>56</v>
+        <v>284</v>
+      </c>
+      <c r="AH32">
+        <v>0.61</v>
+      </c>
+      <c r="AI32">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ32">
+        <v>1</v>
       </c>
       <c r="AK32" t="s">
         <v>56</v>
       </c>
-      <c r="AL32" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM32" s="14" t="s">
-        <v>108</v>
+      <c r="AL32">
+        <v>40</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>111</v>
       </c>
       <c r="AN32" t="s">
         <v>56</v>
       </c>
       <c r="AO32" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ32" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="AS32" s="19" t="s">
-        <v>287</v>
+        <v>124</v>
+      </c>
+      <c r="AP32" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW32">
+        <v>1</v>
+      </c>
+      <c r="AX32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:50" ht="16" x14ac:dyDescent="0.2">
@@ -7053,10 +7081,10 @@
         <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F33">
         <v>2009</v>
@@ -7071,7 +7099,7 @@
         <v>1</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33" t="s">
         <v>86</v>
@@ -7086,94 +7114,94 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <v>1</v>
       </c>
-      <c r="Q33" t="s">
-        <v>56</v>
+      <c r="Q33">
+        <v>20.346150000000002</v>
       </c>
       <c r="R33" t="s">
-        <v>56</v>
-      </c>
-      <c r="S33" t="s">
-        <v>56</v>
+        <v>96</v>
+      </c>
+      <c r="S33">
+        <v>3.5973359999999901</v>
       </c>
       <c r="T33" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="U33">
         <v>20</v>
       </c>
-      <c r="V33" t="s">
-        <v>56</v>
+      <c r="V33">
+        <v>23.23077</v>
       </c>
       <c r="W33" t="s">
         <v>96</v>
       </c>
-      <c r="X33" t="s">
-        <v>56</v>
+      <c r="X33">
+        <v>7.1946729999999901</v>
       </c>
       <c r="Y33" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="Z33">
         <v>20</v>
       </c>
-      <c r="AA33" s="16" t="s">
-        <v>181</v>
+      <c r="AA33" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="AB33" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AC33" t="s">
-        <v>275</v>
-      </c>
-      <c r="AD33" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD33" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF33" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="AG33" t="s">
-        <v>286</v>
-      </c>
-      <c r="AH33">
-        <v>0.61</v>
-      </c>
-      <c r="AI33">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AJ33">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>56</v>
       </c>
       <c r="AK33" t="s">
         <v>56</v>
       </c>
-      <c r="AL33">
-        <v>40</v>
+      <c r="AL33" t="s">
+        <v>56</v>
       </c>
       <c r="AM33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AN33" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="AO33" t="s">
         <v>124</v>
       </c>
-      <c r="AP33" s="17" t="s">
+      <c r="AP33" s="16" t="s">
         <v>169</v>
       </c>
       <c r="AR33" t="s">
         <v>132</v>
       </c>
       <c r="AS33" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="AT33" t="s">
         <v>130</v>
@@ -7205,7 +7233,7 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34">
         <v>2009</v>
@@ -7220,7 +7248,7 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K34" t="s">
         <v>86</v>
@@ -7241,13 +7269,13 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>20.346150000000002</v>
+        <v>17.4615399999999</v>
       </c>
       <c r="R34" t="s">
         <v>96</v>
       </c>
       <c r="S34">
-        <v>3.5973359999999901</v>
+        <v>6.2606120000000001</v>
       </c>
       <c r="T34" t="s">
         <v>98</v>
@@ -7256,13 +7284,13 @@
         <v>20</v>
       </c>
       <c r="V34">
-        <v>23.23077</v>
+        <v>20.807690000000001</v>
       </c>
       <c r="W34" t="s">
         <v>96</v>
       </c>
       <c r="X34">
-        <v>7.1946729999999901</v>
+        <v>6.0576920000000003</v>
       </c>
       <c r="Y34" t="s">
         <v>98</v>
@@ -7270,8 +7298,8 @@
       <c r="Z34">
         <v>20</v>
       </c>
-      <c r="AA34" s="16" t="s">
-        <v>182</v>
+      <c r="AA34" s="15" t="s">
+        <v>183</v>
       </c>
       <c r="AB34" t="s">
         <v>129</v>
@@ -7279,7 +7307,7 @@
       <c r="AC34" t="s">
         <v>241</v>
       </c>
-      <c r="AD34" s="15" t="s">
+      <c r="AD34" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE34">
@@ -7315,14 +7343,14 @@
       <c r="AO34" t="s">
         <v>124</v>
       </c>
-      <c r="AP34" s="17" t="s">
+      <c r="AP34" s="16" t="s">
         <v>169</v>
       </c>
       <c r="AR34" t="s">
         <v>132</v>
       </c>
       <c r="AS34" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AT34" t="s">
         <v>130</v>
@@ -7342,7 +7370,7 @@
     </row>
     <row r="35" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -7354,7 +7382,7 @@
         <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F35">
         <v>2009</v>
@@ -7369,13 +7397,13 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K35" t="s">
         <v>86</v>
       </c>
       <c r="L35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M35" t="s">
         <v>93</v>
@@ -7384,19 +7412,19 @@
         <v>1</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35">
         <v>1</v>
       </c>
-      <c r="Q35">
-        <v>17.4615399999999</v>
+      <c r="Q35" s="2">
+        <v>8.2333000000000003E-2</v>
       </c>
       <c r="R35" t="s">
         <v>96</v>
       </c>
       <c r="S35">
-        <v>6.2606120000000001</v>
+        <v>0.11440350000000001</v>
       </c>
       <c r="T35" t="s">
         <v>98</v>
@@ -7405,13 +7433,13 @@
         <v>20</v>
       </c>
       <c r="V35">
-        <v>20.807690000000001</v>
+        <v>-0.18255814000000001</v>
       </c>
       <c r="W35" t="s">
         <v>96</v>
       </c>
       <c r="X35">
-        <v>6.0576920000000003</v>
+        <v>0.1040032</v>
       </c>
       <c r="Y35" t="s">
         <v>98</v>
@@ -7419,20 +7447,20 @@
       <c r="Z35">
         <v>20</v>
       </c>
-      <c r="AA35" s="16" t="s">
-        <v>183</v>
+      <c r="AA35" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="AB35" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AC35" t="s">
         <v>241</v>
       </c>
-      <c r="AD35" s="15" t="s">
+      <c r="AD35" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF35" t="s">
         <v>56</v>
@@ -7459,19 +7487,19 @@
         <v>108</v>
       </c>
       <c r="AN35" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="AO35" t="s">
         <v>124</v>
       </c>
-      <c r="AP35" s="17" t="s">
-        <v>169</v>
+      <c r="AP35" t="s">
+        <v>121</v>
       </c>
       <c r="AR35" t="s">
         <v>132</v>
       </c>
-      <c r="AS35" t="s">
-        <v>285</v>
+      <c r="AS35" s="14" t="s">
+        <v>259</v>
       </c>
       <c r="AT35" t="s">
         <v>130</v>
@@ -7518,7 +7546,7 @@
         <v>1</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" t="s">
         <v>86</v>
@@ -7538,14 +7566,14 @@
       <c r="P36">
         <v>1</v>
       </c>
-      <c r="Q36" s="2">
-        <v>8.2333000000000003E-2</v>
+      <c r="Q36">
+        <v>0.12093023</v>
       </c>
       <c r="R36" t="s">
         <v>96</v>
       </c>
       <c r="S36">
-        <v>0.11440350000000001</v>
+        <v>0.12480380000000001</v>
       </c>
       <c r="T36" t="s">
         <v>98</v>
@@ -7554,7 +7582,7 @@
         <v>20</v>
       </c>
       <c r="V36">
-        <v>-0.18255814000000001</v>
+        <v>0.12093023</v>
       </c>
       <c r="W36" t="s">
         <v>96</v>
@@ -7569,7 +7597,7 @@
         <v>20</v>
       </c>
       <c r="AA36" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AB36" t="s">
         <v>126</v>
@@ -7577,7 +7605,7 @@
       <c r="AC36" t="s">
         <v>241</v>
       </c>
-      <c r="AD36" s="15" t="s">
+      <c r="AD36" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE36">
@@ -7608,7 +7636,7 @@
         <v>108</v>
       </c>
       <c r="AN36" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="AO36" t="s">
         <v>124</v>
@@ -7616,11 +7644,14 @@
       <c r="AP36" t="s">
         <v>121</v>
       </c>
+      <c r="AQ36" s="14" t="s">
+        <v>262</v>
+      </c>
       <c r="AR36" t="s">
         <v>132</v>
       </c>
-      <c r="AS36" s="15" t="s">
-        <v>261</v>
+      <c r="AS36" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="AT36" t="s">
         <v>130</v>
@@ -7649,7 +7680,7 @@
         <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E37" t="s">
         <v>66</v>
@@ -7661,13 +7692,13 @@
         <v>76</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K37" t="s">
         <v>86</v>
@@ -7687,14 +7718,14 @@
       <c r="P37">
         <v>1</v>
       </c>
-      <c r="Q37">
-        <v>0.12093023</v>
+      <c r="Q37" s="2">
+        <v>3.3670890000000002E-2</v>
       </c>
       <c r="R37" t="s">
         <v>96</v>
       </c>
-      <c r="S37">
-        <v>0.12480380000000001</v>
+      <c r="S37" s="2">
+        <v>9.9632399999999899E-2</v>
       </c>
       <c r="T37" t="s">
         <v>98</v>
@@ -7702,14 +7733,14 @@
       <c r="U37">
         <v>20</v>
       </c>
-      <c r="V37">
-        <v>0.12093023</v>
+      <c r="V37" s="2">
+        <v>2.5569620000000001E-2</v>
       </c>
       <c r="W37" t="s">
         <v>96</v>
       </c>
       <c r="X37">
-        <v>0.1040032</v>
+        <v>0.10868990000000001</v>
       </c>
       <c r="Y37" t="s">
         <v>98</v>
@@ -7718,7 +7749,7 @@
         <v>20</v>
       </c>
       <c r="AA37" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AB37" t="s">
         <v>126</v>
@@ -7726,7 +7757,7 @@
       <c r="AC37" t="s">
         <v>241</v>
       </c>
-      <c r="AD37" s="15" t="s">
+      <c r="AD37" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE37">
@@ -7754,10 +7785,10 @@
         <v>56</v>
       </c>
       <c r="AM37" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AN37" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="AO37" t="s">
         <v>124</v>
@@ -7765,14 +7796,11 @@
       <c r="AP37" t="s">
         <v>121</v>
       </c>
-      <c r="AQ37" s="15" t="s">
-        <v>264</v>
-      </c>
       <c r="AR37" t="s">
         <v>132</v>
       </c>
-      <c r="AS37" s="15" t="s">
-        <v>262</v>
+      <c r="AS37" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="AT37" t="s">
         <v>130</v>
@@ -7813,13 +7841,13 @@
         <v>76</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K38" t="s">
         <v>86</v>
@@ -7840,13 +7868,13 @@
         <v>1</v>
       </c>
       <c r="Q38" s="2">
-        <v>3.3670890000000002E-2</v>
+        <v>1.8481009999999898E-2</v>
       </c>
       <c r="R38" t="s">
         <v>96</v>
       </c>
-      <c r="S38" s="2">
-        <v>9.9632399999999899E-2</v>
+      <c r="S38">
+        <v>0.1222761</v>
       </c>
       <c r="T38" t="s">
         <v>98</v>
@@ -7855,13 +7883,13 @@
         <v>20</v>
       </c>
       <c r="V38" s="2">
-        <v>2.5569620000000001E-2</v>
+        <v>7.7721520000000002E-2</v>
       </c>
       <c r="W38" t="s">
         <v>96</v>
       </c>
       <c r="X38">
-        <v>0.10868990000000001</v>
+        <v>0.1177474</v>
       </c>
       <c r="Y38" t="s">
         <v>98</v>
@@ -7870,7 +7898,7 @@
         <v>20</v>
       </c>
       <c r="AA38" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AB38" t="s">
         <v>126</v>
@@ -7878,7 +7906,7 @@
       <c r="AC38" t="s">
         <v>241</v>
       </c>
-      <c r="AD38" s="15" t="s">
+      <c r="AD38" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE38">
@@ -7909,7 +7937,7 @@
         <v>112</v>
       </c>
       <c r="AN38" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="AO38" t="s">
         <v>124</v>
@@ -7920,8 +7948,8 @@
       <c r="AR38" t="s">
         <v>132</v>
       </c>
-      <c r="AS38" s="15" t="s">
-        <v>262</v>
+      <c r="AS38" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="AT38" t="s">
         <v>130</v>
@@ -7950,7 +7978,7 @@
         <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E39" t="s">
         <v>66</v>
@@ -7962,13 +7990,13 @@
         <v>76</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>2</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K39" t="s">
         <v>86</v>
@@ -7983,51 +8011,51 @@
         <v>1</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>1</v>
       </c>
-      <c r="Q39" s="2">
-        <v>1.8481009999999898E-2</v>
+      <c r="Q39">
+        <v>51.124137930000003</v>
       </c>
       <c r="R39" t="s">
         <v>96</v>
       </c>
       <c r="S39">
-        <v>0.1222761</v>
+        <v>2.01731509999999</v>
       </c>
       <c r="T39" t="s">
         <v>98</v>
       </c>
       <c r="U39">
-        <v>20</v>
-      </c>
-      <c r="V39" s="2">
-        <v>7.7721520000000002E-2</v>
+        <v>40</v>
+      </c>
+      <c r="V39">
+        <v>50.7362068999999</v>
       </c>
       <c r="W39" t="s">
         <v>96</v>
       </c>
       <c r="X39">
-        <v>0.1177474</v>
+        <v>2.01731509999999</v>
       </c>
       <c r="Y39" t="s">
         <v>98</v>
       </c>
       <c r="Z39">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AA39" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AB39" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AC39" t="s">
         <v>241</v>
       </c>
-      <c r="AD39" s="15" t="s">
+      <c r="AD39" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE39">
@@ -8055,10 +8083,10 @@
         <v>56</v>
       </c>
       <c r="AM39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AN39" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="AO39" t="s">
         <v>124</v>
@@ -8066,11 +8094,14 @@
       <c r="AP39" t="s">
         <v>121</v>
       </c>
+      <c r="AQ39" s="14" t="s">
+        <v>261</v>
+      </c>
       <c r="AR39" t="s">
         <v>132</v>
       </c>
-      <c r="AS39" s="15" t="s">
-        <v>262</v>
+      <c r="AS39" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="AT39" t="s">
         <v>130</v>
@@ -8090,7 +8121,7 @@
     </row>
     <row r="40" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -8099,31 +8130,31 @@
         <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F40">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K40" t="s">
         <v>86</v>
       </c>
       <c r="L40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M40" t="s">
         <v>93</v>
@@ -8138,49 +8169,49 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>51.124137930000003</v>
+        <v>64</v>
       </c>
       <c r="R40" t="s">
         <v>96</v>
       </c>
       <c r="S40">
-        <v>2.01731509999999</v>
+        <v>36.29</v>
       </c>
       <c r="T40" t="s">
         <v>98</v>
       </c>
       <c r="U40">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="V40">
-        <v>50.7362068999999</v>
+        <v>55.67</v>
       </c>
       <c r="W40" t="s">
         <v>96</v>
       </c>
       <c r="X40">
-        <v>2.01731509999999</v>
+        <v>31.11</v>
       </c>
       <c r="Y40" t="s">
         <v>98</v>
       </c>
       <c r="Z40">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AA40" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC40" t="s">
         <v>241</v>
       </c>
-      <c r="AD40" s="15" t="s">
+      <c r="AD40" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF40" t="s">
         <v>56</v>
@@ -8204,10 +8235,10 @@
         <v>56</v>
       </c>
       <c r="AM40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AN40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AO40" t="s">
         <v>124</v>
@@ -8215,14 +8246,11 @@
       <c r="AP40" t="s">
         <v>121</v>
       </c>
-      <c r="AQ40" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="AR40" t="s">
         <v>132</v>
       </c>
-      <c r="AS40" s="15" t="s">
-        <v>262</v>
+      <c r="AS40" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="AT40" t="s">
         <v>130</v>
@@ -8269,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" t="s">
         <v>86</v>
@@ -8284,19 +8312,19 @@
         <v>1</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>64</v>
+        <v>6.51</v>
       </c>
       <c r="R41" t="s">
         <v>96</v>
       </c>
       <c r="S41">
-        <v>36.29</v>
+        <v>1.2</v>
       </c>
       <c r="T41" t="s">
         <v>98</v>
@@ -8305,13 +8333,13 @@
         <v>21</v>
       </c>
       <c r="V41">
-        <v>55.67</v>
+        <v>6.24</v>
       </c>
       <c r="W41" t="s">
         <v>96</v>
       </c>
       <c r="X41">
-        <v>31.11</v>
+        <v>1.23</v>
       </c>
       <c r="Y41" t="s">
         <v>98</v>
@@ -8320,19 +8348,19 @@
         <v>21</v>
       </c>
       <c r="AA41" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AC41" t="s">
         <v>241</v>
       </c>
-      <c r="AD41" s="15" t="s">
+      <c r="AD41" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF41" t="s">
         <v>56</v>
@@ -8356,10 +8384,10 @@
         <v>56</v>
       </c>
       <c r="AM41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN41" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO41" t="s">
         <v>124</v>
@@ -8370,7 +8398,7 @@
       <c r="AR41" t="s">
         <v>132</v>
       </c>
-      <c r="AS41" s="15" t="s">
+      <c r="AS41" s="14" t="s">
         <v>166</v>
       </c>
       <c r="AT41" t="s">
@@ -8391,7 +8419,7 @@
     </row>
     <row r="42" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -8403,13 +8431,13 @@
         <v>57</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F42">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="G42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -8418,16 +8446,16 @@
         <v>1</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -8439,45 +8467,45 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>6.51</v>
+        <v>68.984620000000007</v>
       </c>
       <c r="R42" t="s">
         <v>96</v>
       </c>
       <c r="S42">
-        <v>1.2</v>
+        <v>3.769231</v>
       </c>
       <c r="T42" t="s">
         <v>98</v>
       </c>
       <c r="U42">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="V42">
-        <v>6.24</v>
+        <v>68.176919999999896</v>
       </c>
       <c r="W42" t="s">
         <v>96</v>
       </c>
       <c r="X42">
-        <v>1.23</v>
+        <v>3.8438759999999901</v>
       </c>
       <c r="Y42" t="s">
         <v>98</v>
       </c>
       <c r="Z42">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA42" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AB42" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC42" t="s">
         <v>241</v>
       </c>
-      <c r="AD42" s="15" t="s">
+      <c r="AD42" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE42">
@@ -8505,13 +8533,13 @@
         <v>56</v>
       </c>
       <c r="AM42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN42" t="s">
         <v>56</v>
       </c>
       <c r="AO42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AP42" t="s">
         <v>121</v>
@@ -8519,8 +8547,8 @@
       <c r="AR42" t="s">
         <v>132</v>
       </c>
-      <c r="AS42" s="15" t="s">
-        <v>166</v>
+      <c r="AS42" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="AT42" t="s">
         <v>130</v>
@@ -8561,13 +8589,13 @@
         <v>78</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" t="s">
         <v>81</v>
@@ -8588,37 +8616,37 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>68.984620000000007</v>
+        <v>70.007689999999897</v>
       </c>
       <c r="R43" t="s">
         <v>96</v>
       </c>
       <c r="S43">
-        <v>3.769231</v>
+        <v>4.7384620000000002</v>
       </c>
       <c r="T43" t="s">
         <v>98</v>
       </c>
       <c r="U43">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="V43">
-        <v>68.176919999999896</v>
+        <v>65.807689999999894</v>
       </c>
       <c r="W43" t="s">
         <v>96</v>
       </c>
       <c r="X43">
-        <v>3.8438759999999901</v>
+        <v>4.7965410000000004</v>
       </c>
       <c r="Y43" t="s">
         <v>98</v>
       </c>
       <c r="Z43">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AA43" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AB43" t="s">
         <v>126</v>
@@ -8626,7 +8654,7 @@
       <c r="AC43" t="s">
         <v>241</v>
       </c>
-      <c r="AD43" s="15" t="s">
+      <c r="AD43" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE43">
@@ -8668,8 +8696,8 @@
       <c r="AR43" t="s">
         <v>132</v>
       </c>
-      <c r="AS43" s="15" t="s">
-        <v>262</v>
+      <c r="AS43" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="AT43" t="s">
         <v>130</v>
@@ -8710,13 +8738,13 @@
         <v>78</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K44" t="s">
         <v>81</v>
@@ -8737,37 +8765,37 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>70.007689999999897</v>
+        <v>70.330770000000001</v>
       </c>
       <c r="R44" t="s">
         <v>96</v>
       </c>
       <c r="S44">
-        <v>4.7384620000000002</v>
+        <v>4.47668499999999</v>
       </c>
       <c r="T44" t="s">
         <v>98</v>
       </c>
       <c r="U44">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="V44">
-        <v>65.807689999999894</v>
+        <v>68.769229999999894</v>
       </c>
       <c r="W44" t="s">
         <v>96</v>
       </c>
       <c r="X44">
-        <v>4.7965410000000004</v>
+        <v>2.9017029999999902</v>
       </c>
       <c r="Y44" t="s">
         <v>98</v>
       </c>
       <c r="Z44">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AA44" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AB44" t="s">
         <v>126</v>
@@ -8775,7 +8803,7 @@
       <c r="AC44" t="s">
         <v>241</v>
       </c>
-      <c r="AD44" s="15" t="s">
+      <c r="AD44" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE44">
@@ -8817,8 +8845,8 @@
       <c r="AR44" t="s">
         <v>132</v>
       </c>
-      <c r="AS44" s="15" t="s">
-        <v>262</v>
+      <c r="AS44" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="AT44" t="s">
         <v>130</v>
@@ -8859,13 +8887,13 @@
         <v>78</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K45" t="s">
         <v>81</v>
@@ -8886,37 +8914,37 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>70.330770000000001</v>
+        <v>69.684619999999896</v>
       </c>
       <c r="R45" t="s">
         <v>96</v>
       </c>
       <c r="S45">
-        <v>4.47668499999999</v>
+        <v>6.0919970000000001</v>
       </c>
       <c r="T45" t="s">
         <v>98</v>
       </c>
       <c r="U45">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="V45">
-        <v>68.769229999999894</v>
+        <v>67.74615</v>
       </c>
       <c r="W45" t="s">
         <v>96</v>
       </c>
       <c r="X45">
-        <v>2.9017029999999902</v>
+        <v>4.849742</v>
       </c>
       <c r="Y45" t="s">
         <v>98</v>
       </c>
       <c r="Z45">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AA45" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AB45" t="s">
         <v>126</v>
@@ -8924,7 +8952,7 @@
       <c r="AC45" t="s">
         <v>241</v>
       </c>
-      <c r="AD45" s="15" t="s">
+      <c r="AD45" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE45">
@@ -8966,8 +8994,8 @@
       <c r="AR45" t="s">
         <v>132</v>
       </c>
-      <c r="AS45" s="15" t="s">
-        <v>262</v>
+      <c r="AS45" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="AT45" t="s">
         <v>130</v>
@@ -9008,13 +9036,13 @@
         <v>78</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K46" t="s">
         <v>81</v>
@@ -9035,37 +9063,37 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>69.684619999999896</v>
+        <v>71.084620000000001</v>
       </c>
       <c r="R46" t="s">
         <v>96</v>
       </c>
       <c r="S46">
-        <v>6.0919970000000001</v>
+        <v>4.3345320000000003</v>
       </c>
       <c r="T46" t="s">
         <v>98</v>
       </c>
       <c r="U46">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="V46">
-        <v>67.74615</v>
+        <v>70.869230000000002</v>
       </c>
       <c r="W46" t="s">
         <v>96</v>
       </c>
       <c r="X46">
-        <v>4.849742</v>
+        <v>4.34955599999999</v>
       </c>
       <c r="Y46" t="s">
         <v>98</v>
       </c>
       <c r="Z46">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AA46" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB46" t="s">
         <v>126</v>
@@ -9073,7 +9101,7 @@
       <c r="AC46" t="s">
         <v>241</v>
       </c>
-      <c r="AD46" s="15" t="s">
+      <c r="AD46" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE46">
@@ -9115,8 +9143,8 @@
       <c r="AR46" t="s">
         <v>132</v>
       </c>
-      <c r="AS46" s="15" t="s">
-        <v>262</v>
+      <c r="AS46" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="AT46" t="s">
         <v>130</v>
@@ -9145,7 +9173,7 @@
         <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E47" t="s">
         <v>70</v>
@@ -9154,7 +9182,7 @@
         <v>2005</v>
       </c>
       <c r="G47" t="s">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="H47">
         <v>5</v>
@@ -9163,7 +9191,7 @@
         <v>5</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K47" t="s">
         <v>81</v>
@@ -9178,55 +9206,55 @@
         <v>1</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>71.084620000000001</v>
+        <v>367.56760000000003</v>
       </c>
       <c r="R47" t="s">
         <v>96</v>
       </c>
       <c r="S47">
-        <v>4.3345320000000003</v>
+        <v>396.33089999999902</v>
       </c>
       <c r="T47" t="s">
         <v>98</v>
       </c>
       <c r="U47">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V47">
-        <v>70.869230000000002</v>
+        <v>313.51350000000002</v>
       </c>
       <c r="W47" t="s">
         <v>96</v>
       </c>
       <c r="X47">
-        <v>4.34955599999999</v>
+        <v>374.4975</v>
       </c>
       <c r="Y47" t="s">
         <v>98</v>
       </c>
       <c r="Z47">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AA47" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AB47" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AC47" t="s">
         <v>241</v>
       </c>
-      <c r="AD47" s="15" t="s">
+      <c r="AD47" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF47" t="s">
         <v>56</v>
@@ -9250,10 +9278,10 @@
         <v>56</v>
       </c>
       <c r="AM47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN47" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="AO47" t="s">
         <v>122</v>
@@ -9261,11 +9289,14 @@
       <c r="AP47" t="s">
         <v>121</v>
       </c>
+      <c r="AQ47" t="s">
+        <v>263</v>
+      </c>
       <c r="AR47" t="s">
         <v>132</v>
       </c>
-      <c r="AS47" s="15" t="s">
-        <v>262</v>
+      <c r="AS47" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="AT47" t="s">
         <v>130</v>
@@ -9312,7 +9343,7 @@
         <v>5</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K48" t="s">
         <v>81</v>
@@ -9333,37 +9364,37 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>367.56760000000003</v>
+        <v>-145.945899999999</v>
       </c>
       <c r="R48" t="s">
         <v>96</v>
       </c>
       <c r="S48">
-        <v>396.33089999999902</v>
+        <v>481.50599999999901</v>
       </c>
       <c r="T48" t="s">
         <v>98</v>
       </c>
       <c r="U48">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="V48">
-        <v>313.51350000000002</v>
+        <v>270.27030000000002</v>
       </c>
       <c r="W48" t="s">
         <v>96</v>
       </c>
       <c r="X48">
-        <v>374.4975</v>
+        <v>581.17539999999894</v>
       </c>
       <c r="Y48" t="s">
         <v>98</v>
       </c>
       <c r="Z48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA48" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB48" t="s">
         <v>129</v>
@@ -9371,7 +9402,7 @@
       <c r="AC48" t="s">
         <v>241</v>
       </c>
-      <c r="AD48" s="15" t="s">
+      <c r="AD48" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE48">
@@ -9410,14 +9441,11 @@
       <c r="AP48" t="s">
         <v>121</v>
       </c>
-      <c r="AQ48" t="s">
-        <v>265</v>
-      </c>
       <c r="AR48" t="s">
         <v>132</v>
       </c>
-      <c r="AS48" s="15" t="s">
-        <v>269</v>
+      <c r="AS48" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="AT48" t="s">
         <v>130</v>
@@ -9464,7 +9492,7 @@
         <v>5</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K49" t="s">
         <v>81</v>
@@ -9485,37 +9513,37 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>-145.945899999999</v>
+        <v>861.11109999999906</v>
       </c>
       <c r="R49" t="s">
         <v>96</v>
       </c>
       <c r="S49">
-        <v>481.50599999999901</v>
+        <v>701.07939999999905</v>
       </c>
       <c r="T49" t="s">
         <v>98</v>
       </c>
       <c r="U49">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V49">
-        <v>270.27030000000002</v>
+        <v>708.33330000000001</v>
       </c>
       <c r="W49" t="s">
         <v>96</v>
       </c>
       <c r="X49">
-        <v>581.17539999999894</v>
+        <v>434.791</v>
       </c>
       <c r="Y49" t="s">
         <v>98</v>
       </c>
       <c r="Z49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA49" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB49" t="s">
         <v>129</v>
@@ -9523,7 +9551,7 @@
       <c r="AC49" t="s">
         <v>241</v>
       </c>
-      <c r="AD49" s="15" t="s">
+      <c r="AD49" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE49">
@@ -9551,7 +9579,7 @@
         <v>56</v>
       </c>
       <c r="AM49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN49" t="s">
         <v>138</v>
@@ -9562,11 +9590,14 @@
       <c r="AP49" t="s">
         <v>121</v>
       </c>
+      <c r="AQ49" t="s">
+        <v>264</v>
+      </c>
       <c r="AR49" t="s">
         <v>132</v>
       </c>
-      <c r="AS49" s="15" t="s">
-        <v>269</v>
+      <c r="AS49" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="AT49" t="s">
         <v>130</v>
@@ -9595,7 +9626,7 @@
         <v>56</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E50" t="s">
         <v>70</v>
@@ -9610,10 +9641,10 @@
         <v>5</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J50">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K50" t="s">
         <v>81</v>
@@ -9634,37 +9665,37 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>861.11109999999906</v>
+        <v>1305.5555999999899</v>
       </c>
       <c r="R50" t="s">
         <v>96</v>
       </c>
       <c r="S50">
-        <v>701.07939999999905</v>
+        <v>486.11099999999902</v>
       </c>
       <c r="T50" t="s">
         <v>98</v>
       </c>
       <c r="U50">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="V50">
-        <v>708.33330000000001</v>
+        <v>1833.3333</v>
       </c>
       <c r="W50" t="s">
         <v>96</v>
       </c>
       <c r="X50">
-        <v>434.791</v>
+        <v>977.16989999999896</v>
       </c>
       <c r="Y50" t="s">
         <v>98</v>
       </c>
       <c r="Z50">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA50" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AB50" t="s">
         <v>129</v>
@@ -9672,7 +9703,7 @@
       <c r="AC50" t="s">
         <v>241</v>
       </c>
-      <c r="AD50" s="15" t="s">
+      <c r="AD50" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE50">
@@ -9712,13 +9743,13 @@
         <v>121</v>
       </c>
       <c r="AQ50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AR50" t="s">
         <v>132</v>
       </c>
-      <c r="AS50" s="15" t="s">
-        <v>269</v>
+      <c r="AS50" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="AT50" t="s">
         <v>130</v>
@@ -9736,7 +9767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:120" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:120" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -9762,10 +9793,10 @@
         <v>5</v>
       </c>
       <c r="I51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J51">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K51" t="s">
         <v>81</v>
@@ -9786,37 +9817,37 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>1305.5555999999899</v>
+        <v>1.4243699999999899</v>
       </c>
       <c r="R51" t="s">
         <v>96</v>
       </c>
       <c r="S51">
-        <v>486.11099999999902</v>
+        <v>0.48491980000000001</v>
       </c>
       <c r="T51" t="s">
         <v>98</v>
       </c>
       <c r="U51">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="V51">
-        <v>1833.3333</v>
+        <v>1.367227</v>
       </c>
       <c r="W51" t="s">
         <v>96</v>
       </c>
       <c r="X51">
-        <v>977.16989999999896</v>
+        <v>0.49503150000000001</v>
       </c>
       <c r="Y51" t="s">
         <v>98</v>
       </c>
       <c r="Z51">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AA51" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AB51" t="s">
         <v>129</v>
@@ -9824,7 +9855,7 @@
       <c r="AC51" t="s">
         <v>241</v>
       </c>
-      <c r="AD51" s="15" t="s">
+      <c r="AD51" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE51">
@@ -9852,10 +9883,10 @@
         <v>56</v>
       </c>
       <c r="AM51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AN51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AO51" t="s">
         <v>122</v>
@@ -9863,14 +9894,12 @@
       <c r="AP51" t="s">
         <v>121</v>
       </c>
-      <c r="AQ51" t="s">
-        <v>267</v>
-      </c>
+      <c r="AQ51"/>
       <c r="AR51" t="s">
         <v>132</v>
       </c>
-      <c r="AS51" s="15" t="s">
-        <v>269</v>
+      <c r="AS51" s="14" t="s">
+        <v>268</v>
       </c>
       <c r="AT51" t="s">
         <v>130</v>
@@ -9887,6 +9916,76 @@
       <c r="AX51">
         <v>1</v>
       </c>
+      <c r="AY51"/>
+      <c r="AZ51"/>
+      <c r="BA51"/>
+      <c r="BB51"/>
+      <c r="BC51"/>
+      <c r="BD51"/>
+      <c r="BE51"/>
+      <c r="BF51"/>
+      <c r="BG51"/>
+      <c r="BH51"/>
+      <c r="BI51"/>
+      <c r="BJ51"/>
+      <c r="BK51"/>
+      <c r="BL51"/>
+      <c r="BM51"/>
+      <c r="BN51"/>
+      <c r="BO51"/>
+      <c r="BP51"/>
+      <c r="BQ51"/>
+      <c r="BR51"/>
+      <c r="BS51"/>
+      <c r="BT51"/>
+      <c r="BU51"/>
+      <c r="BV51"/>
+      <c r="BW51"/>
+      <c r="BX51"/>
+      <c r="BY51"/>
+      <c r="BZ51"/>
+      <c r="CA51"/>
+      <c r="CB51"/>
+      <c r="CC51"/>
+      <c r="CD51"/>
+      <c r="CE51"/>
+      <c r="CF51"/>
+      <c r="CG51"/>
+      <c r="CH51"/>
+      <c r="CI51"/>
+      <c r="CJ51"/>
+      <c r="CK51"/>
+      <c r="CL51"/>
+      <c r="CM51"/>
+      <c r="CN51"/>
+      <c r="CO51"/>
+      <c r="CP51"/>
+      <c r="CQ51"/>
+      <c r="CR51"/>
+      <c r="CS51"/>
+      <c r="CT51"/>
+      <c r="CU51"/>
+      <c r="CV51"/>
+      <c r="CW51"/>
+      <c r="CX51"/>
+      <c r="CY51"/>
+      <c r="CZ51"/>
+      <c r="DA51"/>
+      <c r="DB51"/>
+      <c r="DC51"/>
+      <c r="DD51"/>
+      <c r="DE51"/>
+      <c r="DF51"/>
+      <c r="DG51"/>
+      <c r="DH51"/>
+      <c r="DI51"/>
+      <c r="DJ51"/>
+      <c r="DK51"/>
+      <c r="DL51"/>
+      <c r="DM51"/>
+      <c r="DN51"/>
+      <c r="DO51"/>
+      <c r="DP51"/>
     </row>
     <row r="52" spans="1:120" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -9914,10 +10013,10 @@
         <v>5</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K52" t="s">
         <v>81</v>
@@ -9938,37 +10037,37 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>1.4243699999999899</v>
+        <v>1.64958</v>
       </c>
       <c r="R52" t="s">
         <v>96</v>
       </c>
       <c r="S52">
-        <v>0.48491980000000001</v>
+        <v>0.51585409999999898</v>
       </c>
       <c r="T52" t="s">
         <v>98</v>
       </c>
       <c r="U52">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="V52">
-        <v>1.367227</v>
+        <v>1.669748</v>
       </c>
       <c r="W52" t="s">
         <v>96</v>
       </c>
       <c r="X52">
-        <v>0.49503150000000001</v>
+        <v>0.46210849999999898</v>
       </c>
       <c r="Y52" t="s">
         <v>98</v>
       </c>
       <c r="Z52">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AA52" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB52" t="s">
         <v>129</v>
@@ -9976,7 +10075,7 @@
       <c r="AC52" t="s">
         <v>241</v>
       </c>
-      <c r="AD52" s="15" t="s">
+      <c r="AD52" s="14" t="s">
         <v>56</v>
       </c>
       <c r="AE52">
@@ -10015,12 +10114,14 @@
       <c r="AP52" t="s">
         <v>121</v>
       </c>
-      <c r="AQ52"/>
+      <c r="AQ52" t="s">
+        <v>266</v>
+      </c>
       <c r="AR52" t="s">
         <v>132</v>
       </c>
-      <c r="AS52" s="15" t="s">
-        <v>270</v>
+      <c r="AS52" s="14" t="s">
+        <v>269</v>
       </c>
       <c r="AT52" t="s">
         <v>130</v>
@@ -10108,156 +10209,156 @@
       <c r="DO52"/>
       <c r="DP52"/>
     </row>
-    <row r="53" spans="1:120" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F53">
-        <v>2005</v>
-      </c>
-      <c r="G53" t="s">
-        <v>78</v>
-      </c>
-      <c r="H53">
-        <v>5</v>
-      </c>
-      <c r="I53">
-        <v>6</v>
-      </c>
-      <c r="J53">
-        <v>4</v>
-      </c>
-      <c r="K53" t="s">
-        <v>81</v>
-      </c>
-      <c r="L53" t="s">
-        <v>89</v>
-      </c>
-      <c r="M53" t="s">
-        <v>94</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
+    <row r="53" spans="1:120" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2001</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>1.64958</v>
-      </c>
-      <c r="R53" t="s">
-        <v>96</v>
-      </c>
-      <c r="S53">
-        <v>0.51585409999999898</v>
-      </c>
-      <c r="T53" t="s">
-        <v>98</v>
-      </c>
-      <c r="U53">
-        <v>23</v>
-      </c>
-      <c r="V53">
-        <v>1.669748</v>
-      </c>
-      <c r="W53" t="s">
-        <v>96</v>
-      </c>
-      <c r="X53">
-        <v>0.46210849999999898</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z53">
-        <v>21</v>
-      </c>
-      <c r="AA53" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD53" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE53">
-        <v>-1</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ53" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK53" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL53" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM53" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN53" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO53" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP53" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ53" t="s">
-        <v>268</v>
-      </c>
-      <c r="AR53" t="s">
+      <c r="P53" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP53" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR53" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AS53" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="AT53" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU53" t="s">
-        <v>131</v>
-      </c>
-      <c r="AV53" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW53">
-        <v>1</v>
-      </c>
-      <c r="AX53">
-        <v>1</v>
+      <c r="AS53" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AT53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV53" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AW53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX53" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="AY53"/>
       <c r="AZ53"/>
@@ -10330,227 +10431,157 @@
       <c r="DO53"/>
       <c r="DP53"/>
     </row>
-    <row r="54" spans="1:120" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2001</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP54" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AQ54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR54" s="3" t="s">
+    <row r="54" spans="1:120" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54">
+        <v>1988</v>
+      </c>
+      <c r="G54" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>81</v>
+      </c>
+      <c r="L54" t="s">
+        <v>91</v>
+      </c>
+      <c r="M54" t="s">
+        <v>92</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>41.451610000000002</v>
+      </c>
+      <c r="R54" t="s">
+        <v>96</v>
+      </c>
+      <c r="S54">
+        <v>1.935484</v>
+      </c>
+      <c r="T54" t="s">
+        <v>98</v>
+      </c>
+      <c r="U54">
+        <v>4</v>
+      </c>
+      <c r="V54">
+        <v>39.516129999999897</v>
+      </c>
+      <c r="W54" t="s">
+        <v>96</v>
+      </c>
+      <c r="X54">
+        <v>3.870968</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z54">
+        <v>4</v>
+      </c>
+      <c r="AA54" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ54" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR54" t="s">
         <v>132</v>
       </c>
-      <c r="AS54" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AT54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV54" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY54"/>
-      <c r="AZ54"/>
-      <c r="BA54"/>
-      <c r="BB54"/>
-      <c r="BC54"/>
-      <c r="BD54"/>
-      <c r="BE54"/>
-      <c r="BF54"/>
-      <c r="BG54"/>
-      <c r="BH54"/>
-      <c r="BI54"/>
-      <c r="BJ54"/>
-      <c r="BK54"/>
-      <c r="BL54"/>
-      <c r="BM54"/>
-      <c r="BN54"/>
-      <c r="BO54"/>
-      <c r="BP54"/>
-      <c r="BQ54"/>
-      <c r="BR54"/>
-      <c r="BS54"/>
-      <c r="BT54"/>
-      <c r="BU54"/>
-      <c r="BV54"/>
-      <c r="BW54"/>
-      <c r="BX54"/>
-      <c r="BY54"/>
-      <c r="BZ54"/>
-      <c r="CA54"/>
-      <c r="CB54"/>
-      <c r="CC54"/>
-      <c r="CD54"/>
-      <c r="CE54"/>
-      <c r="CF54"/>
-      <c r="CG54"/>
-      <c r="CH54"/>
-      <c r="CI54"/>
-      <c r="CJ54"/>
-      <c r="CK54"/>
-      <c r="CL54"/>
-      <c r="CM54"/>
-      <c r="CN54"/>
-      <c r="CO54"/>
-      <c r="CP54"/>
-      <c r="CQ54"/>
-      <c r="CR54"/>
-      <c r="CS54"/>
-      <c r="CT54"/>
-      <c r="CU54"/>
-      <c r="CV54"/>
-      <c r="CW54"/>
-      <c r="CX54"/>
-      <c r="CY54"/>
-      <c r="CZ54"/>
-      <c r="DA54"/>
-      <c r="DB54"/>
-      <c r="DC54"/>
-      <c r="DD54"/>
-      <c r="DE54"/>
-      <c r="DF54"/>
-      <c r="DG54"/>
-      <c r="DH54"/>
-      <c r="DI54"/>
-      <c r="DJ54"/>
-      <c r="DK54"/>
-      <c r="DL54"/>
-      <c r="DM54"/>
-      <c r="DN54"/>
-      <c r="DO54"/>
-      <c r="DP54"/>
+      <c r="AS54" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW54">
+        <v>2</v>
+      </c>
+      <c r="AX54">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" spans="1:120" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -10581,7 +10612,7 @@
         <v>1</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K55" t="s">
         <v>81</v>
@@ -10590,10 +10621,10 @@
         <v>91</v>
       </c>
       <c r="M55" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -10617,7 +10648,7 @@
         <v>4</v>
       </c>
       <c r="V55">
-        <v>39.516129999999897</v>
+        <v>38.548389999999898</v>
       </c>
       <c r="W55" t="s">
         <v>96</v>
@@ -10638,10 +10669,10 @@
         <v>126</v>
       </c>
       <c r="AC55" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AD55" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AE55">
         <v>1</v>
@@ -10671,7 +10702,7 @@
         <v>112</v>
       </c>
       <c r="AN55" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO55" t="s">
         <v>124</v>
@@ -10679,14 +10710,14 @@
       <c r="AP55" t="s">
         <v>121</v>
       </c>
-      <c r="AQ55" s="15" t="s">
-        <v>256</v>
+      <c r="AQ55" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="AR55" t="s">
         <v>132</v>
       </c>
-      <c r="AS55" s="15" t="s">
-        <v>259</v>
+      <c r="AS55" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT55" t="s">
         <v>130</v>
@@ -10733,19 +10764,19 @@
         <v>1</v>
       </c>
       <c r="J56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K56" t="s">
         <v>81</v>
       </c>
       <c r="L56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M56" t="s">
         <v>95</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -10754,13 +10785,13 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>41.451610000000002</v>
+        <v>39.516129999999897</v>
       </c>
       <c r="R56" t="s">
         <v>96</v>
       </c>
       <c r="S56">
-        <v>1.935484</v>
+        <v>39.516129999999897</v>
       </c>
       <c r="T56" t="s">
         <v>98</v>
@@ -10790,10 +10821,10 @@
         <v>126</v>
       </c>
       <c r="AC56" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AD56" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AE56">
         <v>1</v>
@@ -10823,7 +10854,7 @@
         <v>112</v>
       </c>
       <c r="AN56" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO56" t="s">
         <v>124</v>
@@ -10831,14 +10862,11 @@
       <c r="AP56" t="s">
         <v>121</v>
       </c>
-      <c r="AQ56" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="AR56" t="s">
         <v>132</v>
       </c>
-      <c r="AS56" s="15" t="s">
-        <v>259</v>
+      <c r="AS56" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT56" t="s">
         <v>130</v>
@@ -10885,19 +10913,19 @@
         <v>1</v>
       </c>
       <c r="J57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K57" t="s">
         <v>81</v>
       </c>
       <c r="L57" t="s">
+        <v>91</v>
+      </c>
+      <c r="M57" t="s">
         <v>92</v>
       </c>
-      <c r="M57" t="s">
-        <v>95</v>
-      </c>
       <c r="N57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -10906,13 +10934,13 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>39.516129999999897</v>
+        <v>71.451610000000002</v>
       </c>
       <c r="R57" t="s">
         <v>96</v>
       </c>
       <c r="S57">
-        <v>39.516129999999897</v>
+        <v>1.935484</v>
       </c>
       <c r="T57" t="s">
         <v>98</v>
@@ -10921,13 +10949,13 @@
         <v>4</v>
       </c>
       <c r="V57">
-        <v>38.548389999999898</v>
+        <v>69.032259999999894</v>
       </c>
       <c r="W57" t="s">
         <v>96</v>
       </c>
       <c r="X57">
-        <v>3.870968</v>
+        <v>4.8387099999999901</v>
       </c>
       <c r="Y57" t="s">
         <v>98</v>
@@ -10936,16 +10964,16 @@
         <v>4</v>
       </c>
       <c r="AA57" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AB57" t="s">
         <v>126</v>
       </c>
       <c r="AC57" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AD57" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AE57">
         <v>1</v>
@@ -10975,7 +11003,7 @@
         <v>112</v>
       </c>
       <c r="AN57" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO57" t="s">
         <v>124</v>
@@ -10983,11 +11011,14 @@
       <c r="AP57" t="s">
         <v>121</v>
       </c>
+      <c r="AQ57" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="AR57" t="s">
         <v>132</v>
       </c>
-      <c r="AS57" s="15" t="s">
-        <v>259</v>
+      <c r="AS57" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT57" t="s">
         <v>130</v>
@@ -11034,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58" t="s">
         <v>81</v>
@@ -11043,10 +11074,10 @@
         <v>91</v>
       </c>
       <c r="M58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -11070,13 +11101,13 @@
         <v>4</v>
       </c>
       <c r="V58">
-        <v>69.032259999999894</v>
+        <v>70.483869999999897</v>
       </c>
       <c r="W58" t="s">
         <v>96</v>
       </c>
       <c r="X58">
-        <v>4.8387099999999901</v>
+        <v>1.935484</v>
       </c>
       <c r="Y58" t="s">
         <v>98</v>
@@ -11091,10 +11122,10 @@
         <v>126</v>
       </c>
       <c r="AC58" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AD58" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AE58">
         <v>1</v>
@@ -11124,7 +11155,7 @@
         <v>112</v>
       </c>
       <c r="AN58" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO58" t="s">
         <v>124</v>
@@ -11132,14 +11163,14 @@
       <c r="AP58" t="s">
         <v>121</v>
       </c>
-      <c r="AQ58" s="15" t="s">
-        <v>256</v>
+      <c r="AQ58" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="AR58" t="s">
         <v>132</v>
       </c>
-      <c r="AS58" s="15" t="s">
-        <v>259</v>
+      <c r="AS58" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT58" t="s">
         <v>130</v>
@@ -11186,19 +11217,19 @@
         <v>1</v>
       </c>
       <c r="J59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K59" t="s">
         <v>81</v>
       </c>
       <c r="L59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M59" t="s">
         <v>95</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -11207,13 +11238,13 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>71.451610000000002</v>
+        <v>69.032259999999894</v>
       </c>
       <c r="R59" t="s">
         <v>96</v>
       </c>
       <c r="S59">
-        <v>1.935484</v>
+        <v>4.8387099999999901</v>
       </c>
       <c r="T59" t="s">
         <v>98</v>
@@ -11243,10 +11274,10 @@
         <v>126</v>
       </c>
       <c r="AC59" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AD59" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AE59">
         <v>1</v>
@@ -11276,7 +11307,7 @@
         <v>112</v>
       </c>
       <c r="AN59" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO59" t="s">
         <v>124</v>
@@ -11284,14 +11315,11 @@
       <c r="AP59" t="s">
         <v>121</v>
       </c>
-      <c r="AQ59" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="AR59" t="s">
         <v>132</v>
       </c>
-      <c r="AS59" s="15" t="s">
-        <v>259</v>
+      <c r="AS59" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT59" t="s">
         <v>130</v>
@@ -11338,19 +11366,19 @@
         <v>1</v>
       </c>
       <c r="J60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K60" t="s">
         <v>81</v>
       </c>
       <c r="L60" t="s">
+        <v>91</v>
+      </c>
+      <c r="M60" t="s">
         <v>92</v>
       </c>
-      <c r="M60" t="s">
-        <v>95</v>
-      </c>
       <c r="N60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -11359,13 +11387,13 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>69.032259999999894</v>
+        <v>76.290319999999895</v>
       </c>
       <c r="R60" t="s">
         <v>96</v>
       </c>
       <c r="S60">
-        <v>4.8387099999999901</v>
+        <v>1.935484</v>
       </c>
       <c r="T60" t="s">
         <v>98</v>
@@ -11374,13 +11402,13 @@
         <v>4</v>
       </c>
       <c r="V60">
-        <v>70.483869999999897</v>
+        <v>74.354839999999896</v>
       </c>
       <c r="W60" t="s">
         <v>96</v>
       </c>
       <c r="X60">
-        <v>1.935484</v>
+        <v>3.870968</v>
       </c>
       <c r="Y60" t="s">
         <v>98</v>
@@ -11389,16 +11417,16 @@
         <v>4</v>
       </c>
       <c r="AA60" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AB60" t="s">
         <v>126</v>
       </c>
       <c r="AC60" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AD60" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AE60">
         <v>1</v>
@@ -11428,7 +11456,7 @@
         <v>112</v>
       </c>
       <c r="AN60" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO60" t="s">
         <v>124</v>
@@ -11436,11 +11464,14 @@
       <c r="AP60" t="s">
         <v>121</v>
       </c>
+      <c r="AQ60" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="AR60" t="s">
         <v>132</v>
       </c>
-      <c r="AS60" s="15" t="s">
-        <v>259</v>
+      <c r="AS60" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT60" t="s">
         <v>130</v>
@@ -11487,7 +11518,7 @@
         <v>1</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" t="s">
         <v>81</v>
@@ -11496,10 +11527,10 @@
         <v>91</v>
       </c>
       <c r="M61" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -11523,13 +11554,13 @@
         <v>4</v>
       </c>
       <c r="V61">
-        <v>74.354839999999896</v>
+        <v>72.903229999999894</v>
       </c>
       <c r="W61" t="s">
         <v>96</v>
       </c>
       <c r="X61">
-        <v>3.870968</v>
+        <v>5.8064520000000002</v>
       </c>
       <c r="Y61" t="s">
         <v>98</v>
@@ -11544,10 +11575,10 @@
         <v>126</v>
       </c>
       <c r="AC61" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AD61" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AE61">
         <v>1</v>
@@ -11577,7 +11608,7 @@
         <v>112</v>
       </c>
       <c r="AN61" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO61" t="s">
         <v>124</v>
@@ -11585,14 +11616,14 @@
       <c r="AP61" t="s">
         <v>121</v>
       </c>
-      <c r="AQ61" s="15" t="s">
-        <v>256</v>
+      <c r="AQ61" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="AR61" t="s">
         <v>132</v>
       </c>
-      <c r="AS61" s="15" t="s">
-        <v>259</v>
+      <c r="AS61" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT61" t="s">
         <v>130</v>
@@ -11639,19 +11670,19 @@
         <v>1</v>
       </c>
       <c r="J62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K62" t="s">
         <v>81</v>
       </c>
       <c r="L62" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M62" t="s">
         <v>95</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -11660,13 +11691,13 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>76.290319999999895</v>
+        <v>74.354839999999896</v>
       </c>
       <c r="R62" t="s">
         <v>96</v>
       </c>
       <c r="S62">
-        <v>1.935484</v>
+        <v>3.870968</v>
       </c>
       <c r="T62" t="s">
         <v>98</v>
@@ -11696,10 +11727,10 @@
         <v>126</v>
       </c>
       <c r="AC62" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AD62" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AE62">
         <v>1</v>
@@ -11729,7 +11760,7 @@
         <v>112</v>
       </c>
       <c r="AN62" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO62" t="s">
         <v>124</v>
@@ -11737,14 +11768,11 @@
       <c r="AP62" t="s">
         <v>121</v>
       </c>
-      <c r="AQ62" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="AR62" t="s">
         <v>132</v>
       </c>
-      <c r="AS62" s="15" t="s">
-        <v>259</v>
+      <c r="AS62" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT62" t="s">
         <v>130</v>
@@ -11788,22 +11816,22 @@
         <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K63" t="s">
         <v>81</v>
       </c>
       <c r="L63" t="s">
+        <v>91</v>
+      </c>
+      <c r="M63" t="s">
         <v>92</v>
       </c>
-      <c r="M63" t="s">
-        <v>95</v>
-      </c>
       <c r="N63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -11812,13 +11840,13 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>74.354839999999896</v>
+        <v>40.413789999999899</v>
       </c>
       <c r="R63" t="s">
         <v>96</v>
       </c>
       <c r="S63">
-        <v>3.870968</v>
+        <v>3.862069</v>
       </c>
       <c r="T63" t="s">
         <v>98</v>
@@ -11827,31 +11855,31 @@
         <v>4</v>
       </c>
       <c r="V63">
-        <v>72.903229999999894</v>
+        <v>40.413789999999899</v>
       </c>
       <c r="W63" t="s">
         <v>96</v>
       </c>
       <c r="X63">
-        <v>5.8064520000000002</v>
+        <v>1.6723249</v>
       </c>
       <c r="Y63" t="s">
         <v>98</v>
       </c>
       <c r="Z63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA63" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AB63" t="s">
         <v>126</v>
       </c>
       <c r="AC63" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AD63" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AE63">
         <v>1</v>
@@ -11881,7 +11909,7 @@
         <v>112</v>
       </c>
       <c r="AN63" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO63" t="s">
         <v>124</v>
@@ -11889,11 +11917,14 @@
       <c r="AP63" t="s">
         <v>121</v>
       </c>
+      <c r="AQ63" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="AR63" t="s">
         <v>132</v>
       </c>
-      <c r="AS63" s="15" t="s">
-        <v>259</v>
+      <c r="AS63" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT63" t="s">
         <v>130</v>
@@ -11940,7 +11971,7 @@
         <v>2</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K64" t="s">
         <v>81</v>
@@ -11949,10 +11980,10 @@
         <v>91</v>
       </c>
       <c r="M64" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -11976,19 +12007,19 @@
         <v>4</v>
       </c>
       <c r="V64">
-        <v>40.413789999999899</v>
+        <v>35.586210000000001</v>
       </c>
       <c r="W64" t="s">
         <v>96</v>
       </c>
       <c r="X64">
-        <v>1.6723249</v>
+        <v>0.96551719999999897</v>
       </c>
       <c r="Y64" t="s">
         <v>98</v>
       </c>
       <c r="Z64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA64" s="10" t="s">
         <v>227</v>
@@ -11997,10 +12028,10 @@
         <v>126</v>
       </c>
       <c r="AC64" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AD64" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AE64">
         <v>1</v>
@@ -12030,7 +12061,7 @@
         <v>112</v>
       </c>
       <c r="AN64" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO64" t="s">
         <v>124</v>
@@ -12038,14 +12069,14 @@
       <c r="AP64" t="s">
         <v>121</v>
       </c>
-      <c r="AQ64" s="15" t="s">
-        <v>256</v>
+      <c r="AQ64" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="AR64" t="s">
         <v>132</v>
       </c>
-      <c r="AS64" s="15" t="s">
-        <v>259</v>
+      <c r="AS64" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT64" t="s">
         <v>130</v>
@@ -12092,19 +12123,19 @@
         <v>2</v>
       </c>
       <c r="J65">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K65" t="s">
         <v>81</v>
       </c>
       <c r="L65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M65" t="s">
         <v>95</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -12119,13 +12150,13 @@
         <v>96</v>
       </c>
       <c r="S65">
-        <v>3.862069</v>
+        <v>1.6723249</v>
       </c>
       <c r="T65" t="s">
         <v>98</v>
       </c>
       <c r="U65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V65">
         <v>35.586210000000001</v>
@@ -12149,10 +12180,10 @@
         <v>126</v>
       </c>
       <c r="AC65" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AD65" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AE65">
         <v>1</v>
@@ -12182,7 +12213,7 @@
         <v>112</v>
       </c>
       <c r="AN65" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO65" t="s">
         <v>124</v>
@@ -12190,14 +12221,11 @@
       <c r="AP65" t="s">
         <v>121</v>
       </c>
-      <c r="AQ65" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="AR65" t="s">
         <v>132</v>
       </c>
-      <c r="AS65" s="15" t="s">
-        <v>259</v>
+      <c r="AS65" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT65" t="s">
         <v>130</v>
@@ -12244,19 +12272,19 @@
         <v>2</v>
       </c>
       <c r="J66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K66" t="s">
         <v>81</v>
       </c>
       <c r="L66" t="s">
+        <v>91</v>
+      </c>
+      <c r="M66" t="s">
         <v>92</v>
       </c>
-      <c r="M66" t="s">
-        <v>95</v>
-      </c>
       <c r="N66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -12265,46 +12293,46 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>40.413789999999899</v>
+        <v>65.517240000000001</v>
       </c>
       <c r="R66" t="s">
         <v>96</v>
       </c>
       <c r="S66">
-        <v>1.6723249</v>
+        <v>5.7931033999999899</v>
       </c>
       <c r="T66" t="s">
         <v>98</v>
       </c>
       <c r="U66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V66">
-        <v>35.586210000000001</v>
+        <v>67.448279999999897</v>
       </c>
       <c r="W66" t="s">
         <v>96</v>
       </c>
       <c r="X66">
-        <v>0.96551719999999897</v>
+        <v>1.6723249</v>
       </c>
       <c r="Y66" t="s">
         <v>98</v>
       </c>
       <c r="Z66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA66" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AB66" t="s">
         <v>126</v>
       </c>
       <c r="AC66" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AD66" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AE66">
         <v>1</v>
@@ -12334,7 +12362,7 @@
         <v>112</v>
       </c>
       <c r="AN66" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO66" t="s">
         <v>124</v>
@@ -12342,11 +12370,14 @@
       <c r="AP66" t="s">
         <v>121</v>
       </c>
+      <c r="AQ66" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="AR66" t="s">
         <v>132</v>
       </c>
-      <c r="AS66" s="15" t="s">
-        <v>259</v>
+      <c r="AS66" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT66" t="s">
         <v>130</v>
@@ -12393,7 +12424,7 @@
         <v>2</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K67" t="s">
         <v>81</v>
@@ -12402,10 +12433,10 @@
         <v>91</v>
       </c>
       <c r="M67" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -12429,19 +12460,19 @@
         <v>4</v>
       </c>
       <c r="V67">
-        <v>67.448279999999897</v>
+        <v>62.620690000000003</v>
       </c>
       <c r="W67" t="s">
         <v>96</v>
       </c>
       <c r="X67">
-        <v>1.6723249</v>
+        <v>4.3448276000000003</v>
       </c>
       <c r="Y67" t="s">
         <v>98</v>
       </c>
       <c r="Z67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA67" s="10" t="s">
         <v>228</v>
@@ -12450,10 +12481,10 @@
         <v>126</v>
       </c>
       <c r="AC67" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AD67" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AE67">
         <v>1</v>
@@ -12483,7 +12514,7 @@
         <v>112</v>
       </c>
       <c r="AN67" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO67" t="s">
         <v>124</v>
@@ -12491,14 +12522,14 @@
       <c r="AP67" t="s">
         <v>121</v>
       </c>
-      <c r="AQ67" s="15" t="s">
-        <v>256</v>
+      <c r="AQ67" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="AR67" t="s">
         <v>132</v>
       </c>
-      <c r="AS67" s="15" t="s">
-        <v>259</v>
+      <c r="AS67" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT67" t="s">
         <v>130</v>
@@ -12545,19 +12576,19 @@
         <v>2</v>
       </c>
       <c r="J68">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K68" t="s">
         <v>81</v>
       </c>
       <c r="L68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M68" t="s">
         <v>95</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -12566,19 +12597,19 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>65.517240000000001</v>
+        <v>67.448279999999897</v>
       </c>
       <c r="R68" t="s">
         <v>96</v>
       </c>
       <c r="S68">
-        <v>5.7931033999999899</v>
+        <v>1.6723249</v>
       </c>
       <c r="T68" t="s">
         <v>98</v>
       </c>
       <c r="U68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V68">
         <v>62.620690000000003</v>
@@ -12602,10 +12633,10 @@
         <v>126</v>
       </c>
       <c r="AC68" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AD68" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AE68">
         <v>1</v>
@@ -12635,7 +12666,7 @@
         <v>112</v>
       </c>
       <c r="AN68" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO68" t="s">
         <v>124</v>
@@ -12643,14 +12674,11 @@
       <c r="AP68" t="s">
         <v>121</v>
       </c>
-      <c r="AQ68" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="AR68" t="s">
         <v>132</v>
       </c>
-      <c r="AS68" s="15" t="s">
-        <v>259</v>
+      <c r="AS68" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT68" t="s">
         <v>130</v>
@@ -12697,19 +12725,19 @@
         <v>2</v>
       </c>
       <c r="J69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K69" t="s">
         <v>81</v>
       </c>
       <c r="L69" t="s">
+        <v>91</v>
+      </c>
+      <c r="M69" t="s">
         <v>92</v>
       </c>
-      <c r="M69" t="s">
-        <v>95</v>
-      </c>
       <c r="N69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -12718,46 +12746,46 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>67.448279999999897</v>
+        <v>71.793099999999896</v>
       </c>
       <c r="R69" t="s">
         <v>96</v>
       </c>
       <c r="S69">
-        <v>1.6723249</v>
+        <v>2.8965516999999901</v>
       </c>
       <c r="T69" t="s">
         <v>98</v>
       </c>
       <c r="U69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V69">
-        <v>62.620690000000003</v>
+        <v>72.758619999999894</v>
       </c>
       <c r="W69" t="s">
         <v>96</v>
       </c>
       <c r="X69">
-        <v>4.3448276000000003</v>
+        <v>2.5084873999999902</v>
       </c>
       <c r="Y69" t="s">
         <v>98</v>
       </c>
       <c r="Z69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA69" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB69" t="s">
         <v>126</v>
       </c>
       <c r="AC69" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AD69" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AE69">
         <v>1</v>
@@ -12787,7 +12815,7 @@
         <v>112</v>
       </c>
       <c r="AN69" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO69" t="s">
         <v>124</v>
@@ -12795,11 +12823,14 @@
       <c r="AP69" t="s">
         <v>121</v>
       </c>
+      <c r="AQ69" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="AR69" t="s">
         <v>132</v>
       </c>
-      <c r="AS69" s="15" t="s">
-        <v>259</v>
+      <c r="AS69" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT69" t="s">
         <v>130</v>
@@ -12846,7 +12877,7 @@
         <v>2</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K70" t="s">
         <v>81</v>
@@ -12855,10 +12886,10 @@
         <v>91</v>
       </c>
       <c r="M70" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -12882,19 +12913,19 @@
         <v>4</v>
       </c>
       <c r="V70">
-        <v>72.758619999999894</v>
+        <v>80.965519999999898</v>
       </c>
       <c r="W70" t="s">
         <v>96</v>
       </c>
       <c r="X70">
-        <v>2.5084873999999902</v>
+        <v>3.3793103000000002</v>
       </c>
       <c r="Y70" t="s">
         <v>98</v>
       </c>
       <c r="Z70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA70" s="10" t="s">
         <v>229</v>
@@ -12903,10 +12934,10 @@
         <v>126</v>
       </c>
       <c r="AC70" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AD70" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AE70">
         <v>1</v>
@@ -12936,7 +12967,7 @@
         <v>112</v>
       </c>
       <c r="AN70" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO70" t="s">
         <v>124</v>
@@ -12944,14 +12975,14 @@
       <c r="AP70" t="s">
         <v>121</v>
       </c>
-      <c r="AQ70" s="15" t="s">
-        <v>256</v>
+      <c r="AQ70" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="AR70" t="s">
         <v>132</v>
       </c>
-      <c r="AS70" s="15" t="s">
-        <v>259</v>
+      <c r="AS70" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT70" t="s">
         <v>130</v>
@@ -12998,19 +13029,19 @@
         <v>2</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K71" t="s">
         <v>81</v>
       </c>
       <c r="L71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M71" t="s">
         <v>95</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -13019,19 +13050,19 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>71.793099999999896</v>
+        <v>72.758619999999894</v>
       </c>
       <c r="R71" t="s">
         <v>96</v>
       </c>
       <c r="S71">
-        <v>2.8965516999999901</v>
+        <v>2.5084873999999902</v>
       </c>
       <c r="T71" t="s">
         <v>98</v>
       </c>
       <c r="U71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V71">
         <v>80.965519999999898</v>
@@ -13055,10 +13086,10 @@
         <v>126</v>
       </c>
       <c r="AC71" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AD71" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AE71">
         <v>1</v>
@@ -13088,7 +13119,7 @@
         <v>112</v>
       </c>
       <c r="AN71" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO71" t="s">
         <v>124</v>
@@ -13096,14 +13127,11 @@
       <c r="AP71" t="s">
         <v>121</v>
       </c>
-      <c r="AQ71" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="AR71" t="s">
         <v>132</v>
       </c>
-      <c r="AS71" s="15" t="s">
-        <v>259</v>
+      <c r="AS71" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT71" t="s">
         <v>130</v>
@@ -13147,70 +13175,70 @@
         <v>1</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J72">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K72" t="s">
         <v>81</v>
       </c>
       <c r="L72" t="s">
+        <v>91</v>
+      </c>
+      <c r="M72" t="s">
         <v>92</v>
       </c>
-      <c r="M72" t="s">
-        <v>95</v>
-      </c>
       <c r="N72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>72.758619999999894</v>
+        <v>4.8611110000000002</v>
       </c>
       <c r="R72" t="s">
         <v>96</v>
       </c>
       <c r="S72">
-        <v>2.5084873999999902</v>
+        <v>0.98209279999999899</v>
       </c>
       <c r="T72" t="s">
         <v>98</v>
       </c>
       <c r="U72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V72">
-        <v>80.965519999999898</v>
+        <v>4.1666670000000003</v>
       </c>
       <c r="W72" t="s">
         <v>96</v>
       </c>
       <c r="X72">
-        <v>3.3793103000000002</v>
+        <v>0.78567419999999899</v>
       </c>
       <c r="Y72" t="s">
         <v>98</v>
       </c>
       <c r="Z72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA72" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AB72" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AC72" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="AD72" t="s">
-        <v>277</v>
+        <v>56</v>
       </c>
       <c r="AE72">
         <v>1</v>
@@ -13237,10 +13265,10 @@
         <v>56</v>
       </c>
       <c r="AM72" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AN72" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO72" t="s">
         <v>124</v>
@@ -13248,11 +13276,14 @@
       <c r="AP72" t="s">
         <v>121</v>
       </c>
+      <c r="AQ72" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="AR72" t="s">
         <v>132</v>
       </c>
-      <c r="AS72" s="15" t="s">
-        <v>259</v>
+      <c r="AS72" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT72" t="s">
         <v>130</v>
@@ -13299,7 +13330,7 @@
         <v>3</v>
       </c>
       <c r="J73">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K73" t="s">
         <v>81</v>
@@ -13308,10 +13339,10 @@
         <v>91</v>
       </c>
       <c r="M73" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O73">
         <v>0</v>
@@ -13335,13 +13366,13 @@
         <v>2</v>
       </c>
       <c r="V73">
-        <v>4.1666670000000003</v>
+        <v>4.8611110000000002</v>
       </c>
       <c r="W73" t="s">
         <v>96</v>
       </c>
       <c r="X73">
-        <v>0.78567419999999899</v>
+        <v>1.7677670000000001</v>
       </c>
       <c r="Y73" t="s">
         <v>98</v>
@@ -13389,7 +13420,7 @@
         <v>120</v>
       </c>
       <c r="AN73" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO73" t="s">
         <v>124</v>
@@ -13397,14 +13428,14 @@
       <c r="AP73" t="s">
         <v>121</v>
       </c>
-      <c r="AQ73" s="15" t="s">
+      <c r="AQ73" s="14" t="s">
         <v>256</v>
       </c>
       <c r="AR73" t="s">
         <v>132</v>
       </c>
-      <c r="AS73" s="15" t="s">
-        <v>259</v>
+      <c r="AS73" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT73" t="s">
         <v>130</v>
@@ -13451,19 +13482,19 @@
         <v>3</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K74" t="s">
         <v>81</v>
       </c>
       <c r="L74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M74" t="s">
         <v>95</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -13472,13 +13503,13 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>4.8611110000000002</v>
+        <v>4.1666670000000003</v>
       </c>
       <c r="R74" t="s">
         <v>96</v>
       </c>
       <c r="S74">
-        <v>0.98209279999999899</v>
+        <v>0.78567419999999899</v>
       </c>
       <c r="T74" t="s">
         <v>98</v>
@@ -13541,7 +13572,7 @@
         <v>120</v>
       </c>
       <c r="AN74" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO74" t="s">
         <v>124</v>
@@ -13549,14 +13580,11 @@
       <c r="AP74" t="s">
         <v>121</v>
       </c>
-      <c r="AQ74" s="15" t="s">
-        <v>258</v>
-      </c>
       <c r="AR74" t="s">
         <v>132</v>
       </c>
-      <c r="AS74" s="15" t="s">
-        <v>259</v>
+      <c r="AS74" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT74" t="s">
         <v>130</v>
@@ -13603,19 +13631,19 @@
         <v>3</v>
       </c>
       <c r="J75">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K75" t="s">
         <v>81</v>
       </c>
       <c r="L75" t="s">
+        <v>91</v>
+      </c>
+      <c r="M75" t="s">
         <v>92</v>
       </c>
-      <c r="M75" t="s">
-        <v>95</v>
-      </c>
       <c r="N75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -13624,37 +13652,37 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>4.1666670000000003</v>
+        <v>12.222222</v>
       </c>
       <c r="R75" t="s">
         <v>96</v>
       </c>
       <c r="S75">
-        <v>0.78567419999999899</v>
+        <v>1.9245009</v>
       </c>
       <c r="T75" t="s">
         <v>98</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V75">
-        <v>4.8611110000000002</v>
+        <v>10.5555559999999</v>
       </c>
       <c r="W75" t="s">
         <v>96</v>
       </c>
       <c r="X75">
-        <v>1.7677670000000001</v>
+        <v>0.55555560000000004</v>
       </c>
       <c r="Y75" t="s">
         <v>98</v>
       </c>
       <c r="Z75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA75" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AB75" t="s">
         <v>128</v>
@@ -13693,7 +13721,7 @@
         <v>120</v>
       </c>
       <c r="AN75" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO75" t="s">
         <v>124</v>
@@ -13701,11 +13729,14 @@
       <c r="AP75" t="s">
         <v>121</v>
       </c>
+      <c r="AQ75" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="AR75" t="s">
         <v>132</v>
       </c>
-      <c r="AS75" s="15" t="s">
-        <v>259</v>
+      <c r="AS75" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT75" t="s">
         <v>130</v>
@@ -13752,7 +13783,7 @@
         <v>3</v>
       </c>
       <c r="J76">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K76" t="s">
         <v>81</v>
@@ -13761,10 +13792,10 @@
         <v>91</v>
       </c>
       <c r="M76" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -13788,19 +13819,19 @@
         <v>3</v>
       </c>
       <c r="V76">
-        <v>10.5555559999999</v>
+        <v>12.222222</v>
       </c>
       <c r="W76" t="s">
         <v>96</v>
       </c>
       <c r="X76">
-        <v>0.55555560000000004</v>
+        <v>1.1785113</v>
       </c>
       <c r="Y76" t="s">
         <v>98</v>
       </c>
       <c r="Z76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA76" s="10" t="s">
         <v>231</v>
@@ -13842,7 +13873,7 @@
         <v>120</v>
       </c>
       <c r="AN76" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO76" t="s">
         <v>124</v>
@@ -13850,14 +13881,14 @@
       <c r="AP76" t="s">
         <v>121</v>
       </c>
-      <c r="AQ76" s="15" t="s">
-        <v>256</v>
+      <c r="AQ76" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="AR76" t="s">
         <v>132</v>
       </c>
-      <c r="AS76" s="15" t="s">
-        <v>259</v>
+      <c r="AS76" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT76" t="s">
         <v>130</v>
@@ -13904,19 +13935,19 @@
         <v>3</v>
       </c>
       <c r="J77">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K77" t="s">
         <v>81</v>
       </c>
       <c r="L77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M77" t="s">
         <v>95</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -13925,19 +13956,19 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>12.222222</v>
+        <v>10.5555559999999</v>
       </c>
       <c r="R77" t="s">
         <v>96</v>
       </c>
       <c r="S77">
-        <v>1.9245009</v>
+        <v>0.55555560000000004</v>
       </c>
       <c r="T77" t="s">
         <v>98</v>
       </c>
       <c r="U77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V77">
         <v>12.222222</v>
@@ -13994,7 +14025,7 @@
         <v>120</v>
       </c>
       <c r="AN77" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO77" t="s">
         <v>124</v>
@@ -14002,14 +14033,11 @@
       <c r="AP77" t="s">
         <v>121</v>
       </c>
-      <c r="AQ77" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="AR77" t="s">
         <v>132</v>
       </c>
-      <c r="AS77" s="15" t="s">
-        <v>259</v>
+      <c r="AS77" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT77" t="s">
         <v>130</v>
@@ -14056,19 +14084,19 @@
         <v>3</v>
       </c>
       <c r="J78">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K78" t="s">
         <v>81</v>
       </c>
       <c r="L78" t="s">
+        <v>91</v>
+      </c>
+      <c r="M78" t="s">
         <v>92</v>
       </c>
-      <c r="M78" t="s">
-        <v>95</v>
-      </c>
       <c r="N78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -14077,13 +14105,13 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>10.5555559999999</v>
+        <v>15</v>
       </c>
       <c r="R78" t="s">
         <v>96</v>
       </c>
       <c r="S78">
-        <v>0.55555560000000004</v>
+        <v>1.1111111</v>
       </c>
       <c r="T78" t="s">
         <v>98</v>
@@ -14092,22 +14120,22 @@
         <v>4</v>
       </c>
       <c r="V78">
-        <v>12.222222</v>
+        <v>11.944444000000001</v>
       </c>
       <c r="W78" t="s">
         <v>96</v>
       </c>
       <c r="X78">
-        <v>1.1785113</v>
+        <v>0.48112519999999898</v>
       </c>
       <c r="Y78" t="s">
         <v>98</v>
       </c>
       <c r="Z78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA78" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AB78" t="s">
         <v>128</v>
@@ -14146,7 +14174,7 @@
         <v>120</v>
       </c>
       <c r="AN78" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO78" t="s">
         <v>124</v>
@@ -14154,11 +14182,14 @@
       <c r="AP78" t="s">
         <v>121</v>
       </c>
+      <c r="AQ78" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="AR78" t="s">
         <v>132</v>
       </c>
-      <c r="AS78" s="15" t="s">
-        <v>259</v>
+      <c r="AS78" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT78" t="s">
         <v>130</v>
@@ -14205,7 +14236,7 @@
         <v>3</v>
       </c>
       <c r="J79">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K79" t="s">
         <v>81</v>
@@ -14214,10 +14245,10 @@
         <v>91</v>
       </c>
       <c r="M79" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -14241,7 +14272,7 @@
         <v>4</v>
       </c>
       <c r="V79">
-        <v>11.944444000000001</v>
+        <v>15</v>
       </c>
       <c r="W79" t="s">
         <v>96</v>
@@ -14295,7 +14326,7 @@
         <v>120</v>
       </c>
       <c r="AN79" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO79" t="s">
         <v>124</v>
@@ -14303,14 +14334,14 @@
       <c r="AP79" t="s">
         <v>121</v>
       </c>
-      <c r="AQ79" s="15" t="s">
-        <v>256</v>
+      <c r="AQ79" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="AR79" t="s">
         <v>132</v>
       </c>
-      <c r="AS79" s="15" t="s">
-        <v>259</v>
+      <c r="AS79" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT79" t="s">
         <v>130</v>
@@ -14357,19 +14388,19 @@
         <v>3</v>
       </c>
       <c r="J80">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K80" t="s">
         <v>81</v>
       </c>
       <c r="L80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M80" t="s">
         <v>95</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -14378,19 +14409,19 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>15</v>
+        <v>11.944444000000001</v>
       </c>
       <c r="R80" t="s">
         <v>96</v>
       </c>
       <c r="S80">
-        <v>1.1111111</v>
+        <v>0.48112519999999898</v>
       </c>
       <c r="T80" t="s">
         <v>98</v>
       </c>
       <c r="U80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V80">
         <v>15</v>
@@ -14447,7 +14478,7 @@
         <v>120</v>
       </c>
       <c r="AN80" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO80" t="s">
         <v>124</v>
@@ -14455,14 +14486,11 @@
       <c r="AP80" t="s">
         <v>121</v>
       </c>
-      <c r="AQ80" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="AR80" t="s">
         <v>132</v>
       </c>
-      <c r="AS80" s="15" t="s">
-        <v>259</v>
+      <c r="AS80" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT80" t="s">
         <v>130</v>
@@ -14509,19 +14537,19 @@
         <v>3</v>
       </c>
       <c r="J81">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K81" t="s">
         <v>81</v>
       </c>
       <c r="L81" t="s">
+        <v>91</v>
+      </c>
+      <c r="M81" t="s">
         <v>92</v>
       </c>
-      <c r="M81" t="s">
-        <v>95</v>
-      </c>
       <c r="N81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -14530,37 +14558,37 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>11.944444000000001</v>
+        <v>18.333333</v>
       </c>
       <c r="R81" t="s">
         <v>96</v>
       </c>
       <c r="S81">
-        <v>0.48112519999999898</v>
+        <v>0.58925570000000005</v>
       </c>
       <c r="T81" t="s">
         <v>98</v>
       </c>
       <c r="U81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>15</v>
+        <v>17.083333</v>
       </c>
       <c r="W81" t="s">
         <v>96</v>
       </c>
       <c r="X81">
-        <v>0.48112519999999898</v>
+        <v>0.58925570000000005</v>
       </c>
       <c r="Y81" t="s">
         <v>98</v>
       </c>
       <c r="Z81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA81" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AB81" t="s">
         <v>128</v>
@@ -14599,7 +14627,7 @@
         <v>120</v>
       </c>
       <c r="AN81" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO81" t="s">
         <v>124</v>
@@ -14607,11 +14635,14 @@
       <c r="AP81" t="s">
         <v>121</v>
       </c>
+      <c r="AQ81" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="AR81" t="s">
         <v>132</v>
       </c>
-      <c r="AS81" s="15" t="s">
-        <v>259</v>
+      <c r="AS81" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT81" t="s">
         <v>130</v>
@@ -14658,7 +14689,7 @@
         <v>3</v>
       </c>
       <c r="J82">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K82" t="s">
         <v>81</v>
@@ -14667,10 +14698,10 @@
         <v>91</v>
       </c>
       <c r="M82" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -14694,13 +14725,13 @@
         <v>2</v>
       </c>
       <c r="V82">
-        <v>17.083333</v>
+        <v>17.777778000000001</v>
       </c>
       <c r="W82" t="s">
         <v>96</v>
       </c>
       <c r="X82">
-        <v>0.58925570000000005</v>
+        <v>0.78567419999999899</v>
       </c>
       <c r="Y82" t="s">
         <v>98</v>
@@ -14748,7 +14779,7 @@
         <v>120</v>
       </c>
       <c r="AN82" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO82" t="s">
         <v>124</v>
@@ -14756,14 +14787,14 @@
       <c r="AP82" t="s">
         <v>121</v>
       </c>
-      <c r="AQ82" s="15" t="s">
-        <v>256</v>
+      <c r="AQ82" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="AR82" t="s">
         <v>132</v>
       </c>
-      <c r="AS82" s="15" t="s">
-        <v>259</v>
+      <c r="AS82" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT82" t="s">
         <v>130</v>
@@ -14810,19 +14841,19 @@
         <v>3</v>
       </c>
       <c r="J83">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K83" t="s">
         <v>81</v>
       </c>
       <c r="L83" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M83" t="s">
         <v>95</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -14831,7 +14862,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>18.333333</v>
+        <v>17.083333</v>
       </c>
       <c r="R83" t="s">
         <v>96</v>
@@ -14900,7 +14931,7 @@
         <v>120</v>
       </c>
       <c r="AN83" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO83" t="s">
         <v>124</v>
@@ -14908,14 +14939,11 @@
       <c r="AP83" t="s">
         <v>121</v>
       </c>
-      <c r="AQ83" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="AR83" t="s">
         <v>132</v>
       </c>
-      <c r="AS83" s="15" t="s">
-        <v>259</v>
+      <c r="AS83" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT83" t="s">
         <v>130</v>
@@ -14944,7 +14972,7 @@
         <v>56</v>
       </c>
       <c r="D84" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E84" t="s">
         <v>74</v>
@@ -14962,19 +14990,19 @@
         <v>3</v>
       </c>
       <c r="J84">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K84" t="s">
         <v>81</v>
       </c>
       <c r="L84" t="s">
+        <v>91</v>
+      </c>
+      <c r="M84" t="s">
         <v>92</v>
       </c>
-      <c r="M84" t="s">
-        <v>95</v>
-      </c>
       <c r="N84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -14983,40 +15011,40 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>17.083333</v>
+        <v>2.473214</v>
       </c>
       <c r="R84" t="s">
         <v>96</v>
       </c>
       <c r="S84">
-        <v>0.58925570000000005</v>
+        <v>0.8333758</v>
       </c>
       <c r="T84" t="s">
         <v>98</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V84">
-        <v>17.777778000000001</v>
+        <v>1.294643</v>
       </c>
       <c r="W84" t="s">
         <v>96</v>
       </c>
       <c r="X84">
-        <v>0.78567419999999899</v>
+        <v>0.65884149999999897</v>
       </c>
       <c r="Y84" t="s">
         <v>98</v>
       </c>
       <c r="Z84">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA84" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB84" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC84" t="s">
         <v>241</v>
@@ -15025,7 +15053,7 @@
         <v>56</v>
       </c>
       <c r="AE84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF84" t="s">
         <v>56</v>
@@ -15049,7 +15077,7 @@
         <v>56</v>
       </c>
       <c r="AM84" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="AN84" t="s">
         <v>139</v>
@@ -15060,11 +15088,14 @@
       <c r="AP84" t="s">
         <v>121</v>
       </c>
+      <c r="AQ84" s="14" t="s">
+        <v>255</v>
+      </c>
       <c r="AR84" t="s">
         <v>132</v>
       </c>
-      <c r="AS84" s="15" t="s">
-        <v>259</v>
+      <c r="AS84" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT84" t="s">
         <v>130</v>
@@ -15093,7 +15124,7 @@
         <v>56</v>
       </c>
       <c r="D85" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E85" t="s">
         <v>74</v>
@@ -15111,7 +15142,7 @@
         <v>3</v>
       </c>
       <c r="J85">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K85" t="s">
         <v>81</v>
@@ -15120,10 +15151,10 @@
         <v>91</v>
       </c>
       <c r="M85" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O85">
         <v>0</v>
@@ -15147,19 +15178,19 @@
         <v>8</v>
       </c>
       <c r="V85">
-        <v>1.294643</v>
+        <v>3.973214</v>
       </c>
       <c r="W85" t="s">
         <v>96</v>
       </c>
       <c r="X85">
-        <v>0.65884149999999897</v>
+        <v>0.63781500000000002</v>
       </c>
       <c r="Y85" t="s">
         <v>98</v>
       </c>
       <c r="Z85">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA85" s="10" t="s">
         <v>234</v>
@@ -15209,14 +15240,14 @@
       <c r="AP85" t="s">
         <v>121</v>
       </c>
-      <c r="AQ85" s="15" t="s">
-        <v>257</v>
+      <c r="AQ85" s="14" t="s">
+        <v>254</v>
       </c>
       <c r="AR85" t="s">
         <v>132</v>
       </c>
-      <c r="AS85" s="15" t="s">
-        <v>259</v>
+      <c r="AS85" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT85" t="s">
         <v>130</v>
@@ -15245,7 +15276,7 @@
         <v>56</v>
       </c>
       <c r="D86" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E86" t="s">
         <v>74</v>
@@ -15263,19 +15294,19 @@
         <v>3</v>
       </c>
       <c r="J86">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K86" t="s">
         <v>81</v>
       </c>
       <c r="L86" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M86" t="s">
         <v>95</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O86">
         <v>0</v>
@@ -15284,34 +15315,34 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>2.473214</v>
+        <v>3.973214</v>
       </c>
       <c r="R86" t="s">
         <v>96</v>
       </c>
       <c r="S86">
-        <v>0.8333758</v>
+        <v>0.63781500000000002</v>
       </c>
       <c r="T86" t="s">
         <v>98</v>
       </c>
       <c r="U86">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V86">
-        <v>3.973214</v>
+        <v>1.294643</v>
       </c>
       <c r="W86" t="s">
         <v>96</v>
       </c>
       <c r="X86">
-        <v>0.63781500000000002</v>
+        <v>0.65884149999999897</v>
       </c>
       <c r="Y86" t="s">
         <v>98</v>
       </c>
       <c r="Z86">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA86" s="10" t="s">
         <v>234</v>
@@ -15361,14 +15392,11 @@
       <c r="AP86" t="s">
         <v>121</v>
       </c>
-      <c r="AQ86" s="15" t="s">
-        <v>256</v>
-      </c>
       <c r="AR86" t="s">
         <v>132</v>
       </c>
-      <c r="AS86" s="15" t="s">
-        <v>259</v>
+      <c r="AS86" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT86" t="s">
         <v>130</v>
@@ -15397,7 +15425,7 @@
         <v>56</v>
       </c>
       <c r="D87" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E87" t="s">
         <v>74</v>
@@ -15415,19 +15443,19 @@
         <v>3</v>
       </c>
       <c r="J87">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K87" t="s">
         <v>81</v>
       </c>
       <c r="L87" t="s">
+        <v>91</v>
+      </c>
+      <c r="M87" t="s">
         <v>92</v>
       </c>
-      <c r="M87" t="s">
-        <v>95</v>
-      </c>
       <c r="N87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O87">
         <v>0</v>
@@ -15436,28 +15464,28 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>3.973214</v>
+        <v>3.1964290000000002</v>
       </c>
       <c r="R87" t="s">
         <v>96</v>
       </c>
       <c r="S87">
-        <v>0.63781500000000002</v>
+        <v>0.227284299999999</v>
       </c>
       <c r="T87" t="s">
         <v>98</v>
       </c>
       <c r="U87">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V87">
-        <v>1.294643</v>
+        <v>2.01785699999999</v>
       </c>
       <c r="W87" t="s">
         <v>96</v>
       </c>
       <c r="X87">
-        <v>0.65884149999999897</v>
+        <v>0.23957870000000001</v>
       </c>
       <c r="Y87" t="s">
         <v>98</v>
@@ -15466,7 +15494,7 @@
         <v>5</v>
       </c>
       <c r="AA87" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AB87" t="s">
         <v>129</v>
@@ -15513,11 +15541,14 @@
       <c r="AP87" t="s">
         <v>121</v>
       </c>
+      <c r="AQ87" s="14" t="s">
+        <v>255</v>
+      </c>
       <c r="AR87" t="s">
         <v>132</v>
       </c>
-      <c r="AS87" s="15" t="s">
-        <v>259</v>
+      <c r="AS87" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT87" t="s">
         <v>130</v>
@@ -15546,7 +15577,7 @@
         <v>56</v>
       </c>
       <c r="D88" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E88" t="s">
         <v>74</v>
@@ -15564,7 +15595,7 @@
         <v>3</v>
       </c>
       <c r="J88">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K88" t="s">
         <v>81</v>
@@ -15573,10 +15604,10 @@
         <v>91</v>
       </c>
       <c r="M88" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O88">
         <v>0</v>
@@ -15600,19 +15631,19 @@
         <v>8</v>
       </c>
       <c r="V88">
-        <v>2.01785699999999</v>
+        <v>4.61607099999999</v>
       </c>
       <c r="W88" t="s">
         <v>96</v>
       </c>
       <c r="X88">
-        <v>0.23957870000000001</v>
+        <v>0.21260499999999899</v>
       </c>
       <c r="Y88" t="s">
         <v>98</v>
       </c>
       <c r="Z88">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA88" s="10" t="s">
         <v>235</v>
@@ -15662,14 +15693,14 @@
       <c r="AP88" t="s">
         <v>121</v>
       </c>
-      <c r="AQ88" s="15" t="s">
-        <v>257</v>
+      <c r="AQ88" s="14" t="s">
+        <v>254</v>
       </c>
       <c r="AR88" t="s">
         <v>132</v>
       </c>
-      <c r="AS88" s="15" t="s">
-        <v>259</v>
+      <c r="AS88" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT88" t="s">
         <v>130</v>
@@ -15698,7 +15729,7 @@
         <v>56</v>
       </c>
       <c r="D89" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E89" t="s">
         <v>74</v>
@@ -15716,19 +15747,19 @@
         <v>3</v>
       </c>
       <c r="J89">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K89" t="s">
         <v>81</v>
       </c>
       <c r="L89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M89" t="s">
         <v>95</v>
       </c>
       <c r="N89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O89">
         <v>0</v>
@@ -15737,34 +15768,34 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>3.1964290000000002</v>
+        <v>4.61607099999999</v>
       </c>
       <c r="R89" t="s">
         <v>96</v>
       </c>
       <c r="S89">
-        <v>0.227284299999999</v>
+        <v>0.21260499999999899</v>
       </c>
       <c r="T89" t="s">
         <v>98</v>
       </c>
       <c r="U89">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V89">
-        <v>4.61607099999999</v>
+        <v>2.01785699999999</v>
       </c>
       <c r="W89" t="s">
         <v>96</v>
       </c>
       <c r="X89">
-        <v>0.21260499999999899</v>
+        <v>0.23957870000000001</v>
       </c>
       <c r="Y89" t="s">
         <v>98</v>
       </c>
       <c r="Z89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA89" s="10" t="s">
         <v>235</v>
@@ -15814,14 +15845,11 @@
       <c r="AP89" t="s">
         <v>121</v>
       </c>
-      <c r="AQ89" s="15" t="s">
-        <v>256</v>
-      </c>
       <c r="AR89" t="s">
         <v>132</v>
       </c>
-      <c r="AS89" s="15" t="s">
-        <v>259</v>
+      <c r="AS89" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT89" t="s">
         <v>130</v>
@@ -15850,7 +15878,7 @@
         <v>56</v>
       </c>
       <c r="D90" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E90" t="s">
         <v>74</v>
@@ -15868,19 +15896,19 @@
         <v>3</v>
       </c>
       <c r="J90">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K90" t="s">
         <v>81</v>
       </c>
       <c r="L90" t="s">
+        <v>91</v>
+      </c>
+      <c r="M90" t="s">
         <v>92</v>
       </c>
-      <c r="M90" t="s">
-        <v>95</v>
-      </c>
       <c r="N90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O90">
         <v>0</v>
@@ -15889,28 +15917,28 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>4.61607099999999</v>
+        <v>3.5714290000000002</v>
       </c>
       <c r="R90" t="s">
         <v>96</v>
       </c>
       <c r="S90">
-        <v>0.21260499999999899</v>
+        <v>0.227284299999999</v>
       </c>
       <c r="T90" t="s">
         <v>98</v>
       </c>
       <c r="U90">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V90">
-        <v>2.01785699999999</v>
+        <v>1.482143</v>
       </c>
       <c r="W90" t="s">
         <v>96</v>
       </c>
       <c r="X90">
-        <v>0.23957870000000001</v>
+        <v>0.53905210000000003</v>
       </c>
       <c r="Y90" t="s">
         <v>98</v>
@@ -15919,7 +15947,7 @@
         <v>5</v>
       </c>
       <c r="AA90" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AB90" t="s">
         <v>129</v>
@@ -15966,11 +15994,14 @@
       <c r="AP90" t="s">
         <v>121</v>
       </c>
+      <c r="AQ90" s="14" t="s">
+        <v>255</v>
+      </c>
       <c r="AR90" t="s">
         <v>132</v>
       </c>
-      <c r="AS90" s="15" t="s">
-        <v>259</v>
+      <c r="AS90" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT90" t="s">
         <v>130</v>
@@ -15999,7 +16030,7 @@
         <v>56</v>
       </c>
       <c r="D91" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E91" t="s">
         <v>74</v>
@@ -16017,7 +16048,7 @@
         <v>3</v>
       </c>
       <c r="J91">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K91" t="s">
         <v>81</v>
@@ -16026,10 +16057,10 @@
         <v>91</v>
       </c>
       <c r="M91" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O91">
         <v>0</v>
@@ -16053,19 +16084,19 @@
         <v>8</v>
       </c>
       <c r="V91">
-        <v>1.482143</v>
+        <v>5.0178570000000002</v>
       </c>
       <c r="W91" t="s">
         <v>96</v>
       </c>
       <c r="X91">
-        <v>0.53905210000000003</v>
+        <v>0.42520999999999898</v>
       </c>
       <c r="Y91" t="s">
         <v>98</v>
       </c>
       <c r="Z91">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA91" s="10" t="s">
         <v>236</v>
@@ -16089,7 +16120,7 @@
         <v>56</v>
       </c>
       <c r="AH91" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AI91" t="s">
         <v>56</v>
@@ -16115,14 +16146,14 @@
       <c r="AP91" t="s">
         <v>121</v>
       </c>
-      <c r="AQ91" s="15" t="s">
-        <v>257</v>
+      <c r="AQ91" s="14" t="s">
+        <v>254</v>
       </c>
       <c r="AR91" t="s">
         <v>132</v>
       </c>
-      <c r="AS91" s="15" t="s">
-        <v>259</v>
+      <c r="AS91" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT91" t="s">
         <v>130</v>
@@ -16151,7 +16182,7 @@
         <v>56</v>
       </c>
       <c r="D92" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E92" t="s">
         <v>74</v>
@@ -16169,19 +16200,19 @@
         <v>3</v>
       </c>
       <c r="J92">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K92" t="s">
         <v>81</v>
       </c>
       <c r="L92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M92" t="s">
         <v>95</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O92">
         <v>0</v>
@@ -16190,34 +16221,34 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>3.5714290000000002</v>
+        <v>5.0178570000000002</v>
       </c>
       <c r="R92" t="s">
         <v>96</v>
       </c>
       <c r="S92">
-        <v>0.227284299999999</v>
+        <v>0.42520999999999898</v>
       </c>
       <c r="T92" t="s">
         <v>98</v>
       </c>
       <c r="U92">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V92">
-        <v>5.0178570000000002</v>
+        <v>1.482143</v>
       </c>
       <c r="W92" t="s">
         <v>96</v>
       </c>
       <c r="X92">
-        <v>0.42520999999999898</v>
+        <v>0.53905210000000003</v>
       </c>
       <c r="Y92" t="s">
         <v>98</v>
       </c>
       <c r="Z92">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA92" s="10" t="s">
         <v>236</v>
@@ -16241,7 +16272,7 @@
         <v>56</v>
       </c>
       <c r="AH92" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="AI92" t="s">
         <v>56</v>
@@ -16267,14 +16298,11 @@
       <c r="AP92" t="s">
         <v>121</v>
       </c>
-      <c r="AQ92" s="15" t="s">
-        <v>256</v>
-      </c>
       <c r="AR92" t="s">
         <v>132</v>
       </c>
-      <c r="AS92" s="15" t="s">
-        <v>259</v>
+      <c r="AS92" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT92" t="s">
         <v>130</v>
@@ -16303,7 +16331,7 @@
         <v>56</v>
       </c>
       <c r="D93" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E93" t="s">
         <v>74</v>
@@ -16321,19 +16349,19 @@
         <v>3</v>
       </c>
       <c r="J93">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K93" t="s">
         <v>81</v>
       </c>
       <c r="L93" t="s">
+        <v>91</v>
+      </c>
+      <c r="M93" t="s">
         <v>92</v>
       </c>
-      <c r="M93" t="s">
-        <v>95</v>
-      </c>
       <c r="N93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -16342,22 +16370,22 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>5.0178570000000002</v>
+        <v>3.973214</v>
       </c>
       <c r="R93" t="s">
         <v>96</v>
       </c>
       <c r="S93">
-        <v>0.42520999999999898</v>
+        <v>0.30304579999999898</v>
       </c>
       <c r="T93" t="s">
         <v>98</v>
       </c>
       <c r="U93">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V93">
-        <v>1.482143</v>
+        <v>1.669643</v>
       </c>
       <c r="W93" t="s">
         <v>96</v>
@@ -16372,7 +16400,7 @@
         <v>5</v>
       </c>
       <c r="AA93" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AB93" t="s">
         <v>129</v>
@@ -16419,11 +16447,14 @@
       <c r="AP93" t="s">
         <v>121</v>
       </c>
+      <c r="AQ93" s="14" t="s">
+        <v>255</v>
+      </c>
       <c r="AR93" t="s">
         <v>132</v>
       </c>
-      <c r="AS93" s="15" t="s">
-        <v>259</v>
+      <c r="AS93" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT93" t="s">
         <v>130</v>
@@ -16452,7 +16483,7 @@
         <v>56</v>
       </c>
       <c r="D94" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E94" t="s">
         <v>74</v>
@@ -16470,7 +16501,7 @@
         <v>3</v>
       </c>
       <c r="J94">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K94" t="s">
         <v>81</v>
@@ -16479,10 +16510,10 @@
         <v>91</v>
       </c>
       <c r="M94" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -16506,19 +16537,19 @@
         <v>8</v>
       </c>
       <c r="V94">
-        <v>1.669643</v>
+        <v>5.5267860000000004</v>
       </c>
       <c r="W94" t="s">
         <v>96</v>
       </c>
       <c r="X94">
-        <v>0.53905210000000003</v>
+        <v>0.28347339999999899</v>
       </c>
       <c r="Y94" t="s">
         <v>98</v>
       </c>
       <c r="Z94">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA94" s="10" t="s">
         <v>237</v>
@@ -16568,14 +16599,14 @@
       <c r="AP94" t="s">
         <v>121</v>
       </c>
-      <c r="AQ94" s="15" t="s">
-        <v>257</v>
+      <c r="AQ94" s="14" t="s">
+        <v>254</v>
       </c>
       <c r="AR94" t="s">
         <v>132</v>
       </c>
-      <c r="AS94" s="15" t="s">
-        <v>259</v>
+      <c r="AS94" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT94" t="s">
         <v>130</v>
@@ -16604,7 +16635,7 @@
         <v>56</v>
       </c>
       <c r="D95" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E95" t="s">
         <v>74</v>
@@ -16622,19 +16653,19 @@
         <v>3</v>
       </c>
       <c r="J95">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K95" t="s">
         <v>81</v>
       </c>
       <c r="L95" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M95" t="s">
         <v>95</v>
       </c>
       <c r="N95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -16643,34 +16674,34 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>3.973214</v>
+        <v>5.5267860000000004</v>
       </c>
       <c r="R95" t="s">
         <v>96</v>
       </c>
       <c r="S95">
-        <v>0.30304579999999898</v>
+        <v>0.28347339999999899</v>
       </c>
       <c r="T95" t="s">
         <v>98</v>
       </c>
       <c r="U95">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V95">
-        <v>5.5267860000000004</v>
+        <v>1.669643</v>
       </c>
       <c r="W95" t="s">
         <v>96</v>
       </c>
       <c r="X95">
-        <v>0.28347339999999899</v>
+        <v>0.53905210000000003</v>
       </c>
       <c r="Y95" t="s">
         <v>98</v>
       </c>
       <c r="Z95">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA95" s="10" t="s">
         <v>237</v>
@@ -16720,14 +16751,11 @@
       <c r="AP95" t="s">
         <v>121</v>
       </c>
-      <c r="AQ95" s="15" t="s">
-        <v>256</v>
-      </c>
       <c r="AR95" t="s">
         <v>132</v>
       </c>
-      <c r="AS95" s="15" t="s">
-        <v>259</v>
+      <c r="AS95" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="AT95" t="s">
         <v>130</v>
@@ -16756,7 +16784,7 @@
         <v>56</v>
       </c>
       <c r="D96" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E96" t="s">
         <v>74</v>
@@ -16774,61 +16802,61 @@
         <v>3</v>
       </c>
       <c r="J96">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K96" t="s">
         <v>81</v>
       </c>
       <c r="L96" t="s">
+        <v>91</v>
+      </c>
+      <c r="M96" t="s">
         <v>92</v>
       </c>
-      <c r="M96" t="s">
-        <v>95</v>
-      </c>
       <c r="N96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>5.5267860000000004</v>
+        <v>40.932699999999954</v>
       </c>
       <c r="R96" t="s">
         <v>96</v>
       </c>
       <c r="S96">
-        <v>0.28347339999999899</v>
+        <v>7.5028501392105058</v>
       </c>
       <c r="T96" t="s">
         <v>98</v>
       </c>
       <c r="U96">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V96">
-        <v>1.669643</v>
+        <v>39.900841428571326</v>
       </c>
       <c r="W96" t="s">
         <v>96</v>
       </c>
       <c r="X96">
-        <v>0.53905210000000003</v>
+        <v>7.1257804920377934</v>
       </c>
       <c r="Y96" t="s">
         <v>98</v>
       </c>
       <c r="Z96">
-        <v>5</v>
-      </c>
-      <c r="AA96" s="10" t="s">
-        <v>237</v>
+        <v>7</v>
+      </c>
+      <c r="AA96" s="17" t="s">
+        <v>276</v>
       </c>
       <c r="AB96" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AC96" t="s">
         <v>241</v>
@@ -16837,7 +16865,7 @@
         <v>56</v>
       </c>
       <c r="AE96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF96" t="s">
         <v>56</v>
@@ -16861,10 +16889,10 @@
         <v>56</v>
       </c>
       <c r="AM96" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AN96" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO96" t="s">
         <v>124</v>
@@ -16872,11 +16900,14 @@
       <c r="AP96" t="s">
         <v>121</v>
       </c>
+      <c r="AQ96" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="AR96" t="s">
-        <v>132</v>
-      </c>
-      <c r="AS96" s="15" t="s">
-        <v>259</v>
+        <v>98</v>
+      </c>
+      <c r="AS96" s="17" t="s">
+        <v>279</v>
       </c>
       <c r="AT96" t="s">
         <v>130</v>
@@ -16923,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K97" t="s">
         <v>81</v>
@@ -16932,10 +16963,10 @@
         <v>91</v>
       </c>
       <c r="M97" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O97">
         <v>1</v>
@@ -16959,22 +16990,22 @@
         <v>8</v>
       </c>
       <c r="V97">
-        <v>39.900841428571326</v>
+        <v>37.95595399999992</v>
       </c>
       <c r="W97" t="s">
         <v>96</v>
       </c>
       <c r="X97">
-        <v>7.1257804920377934</v>
+        <v>6.834331118811253</v>
       </c>
       <c r="Y97" t="s">
         <v>98</v>
       </c>
       <c r="Z97">
-        <v>7</v>
-      </c>
-      <c r="AA97" s="18" t="s">
-        <v>278</v>
+        <v>5</v>
+      </c>
+      <c r="AA97" s="17" t="s">
+        <v>276</v>
       </c>
       <c r="AB97" t="s">
         <v>126</v>
@@ -17013,7 +17044,7 @@
         <v>112</v>
       </c>
       <c r="AN97" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO97" t="s">
         <v>124</v>
@@ -17021,14 +17052,14 @@
       <c r="AP97" t="s">
         <v>121</v>
       </c>
-      <c r="AQ97" s="15" t="s">
-        <v>256</v>
+      <c r="AQ97" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="AR97" t="s">
         <v>98</v>
       </c>
-      <c r="AS97" s="18" t="s">
-        <v>281</v>
+      <c r="AS97" s="17" t="s">
+        <v>280</v>
       </c>
       <c r="AT97" t="s">
         <v>130</v>
@@ -17075,19 +17106,19 @@
         <v>3</v>
       </c>
       <c r="J98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K98" t="s">
         <v>81</v>
       </c>
       <c r="L98" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M98" t="s">
         <v>95</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O98">
         <v>1</v>
@@ -17096,19 +17127,19 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>40.932699999999954</v>
+        <v>39.900841428571326</v>
       </c>
       <c r="R98" t="s">
         <v>96</v>
       </c>
       <c r="S98">
-        <v>7.5028501392105058</v>
+        <v>68.486474273248362</v>
       </c>
       <c r="T98" t="s">
         <v>98</v>
       </c>
       <c r="U98">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V98">
         <v>37.95595399999992</v>
@@ -17125,8 +17156,8 @@
       <c r="Z98">
         <v>5</v>
       </c>
-      <c r="AA98" s="18" t="s">
-        <v>278</v>
+      <c r="AA98" s="17" t="s">
+        <v>276</v>
       </c>
       <c r="AB98" t="s">
         <v>126</v>
@@ -17165,7 +17196,7 @@
         <v>112</v>
       </c>
       <c r="AN98" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO98" t="s">
         <v>124</v>
@@ -17173,14 +17204,11 @@
       <c r="AP98" t="s">
         <v>121</v>
       </c>
-      <c r="AQ98" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="AR98" t="s">
         <v>98</v>
       </c>
-      <c r="AS98" s="18" t="s">
-        <v>282</v>
+      <c r="AS98" s="17" t="s">
+        <v>280</v>
       </c>
       <c r="AT98" t="s">
         <v>130</v>
@@ -17227,19 +17255,19 @@
         <v>3</v>
       </c>
       <c r="J99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K99" t="s">
         <v>81</v>
       </c>
       <c r="L99" t="s">
+        <v>91</v>
+      </c>
+      <c r="M99" t="s">
         <v>92</v>
       </c>
-      <c r="M99" t="s">
-        <v>95</v>
-      </c>
       <c r="N99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O99">
         <v>1</v>
@@ -17248,37 +17276,37 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>39.900841428571326</v>
+        <v>68.484425000000002</v>
       </c>
       <c r="R99" t="s">
         <v>96</v>
       </c>
       <c r="S99">
-        <v>68.486474273248362</v>
+        <v>11.044472090197724</v>
       </c>
       <c r="T99" t="s">
         <v>98</v>
       </c>
       <c r="U99">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V99">
-        <v>37.95595399999992</v>
+        <v>68.35341142857132</v>
       </c>
       <c r="W99" t="s">
         <v>96</v>
       </c>
       <c r="X99">
-        <v>6.834331118811253</v>
+        <v>8.7492593729260584</v>
       </c>
       <c r="Y99" t="s">
         <v>98</v>
       </c>
       <c r="Z99">
-        <v>5</v>
-      </c>
-      <c r="AA99" s="18" t="s">
-        <v>278</v>
+        <v>7</v>
+      </c>
+      <c r="AA99" s="17" t="s">
+        <v>277</v>
       </c>
       <c r="AB99" t="s">
         <v>126</v>
@@ -17317,7 +17345,7 @@
         <v>112</v>
       </c>
       <c r="AN99" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO99" t="s">
         <v>124</v>
@@ -17325,11 +17353,14 @@
       <c r="AP99" t="s">
         <v>121</v>
       </c>
+      <c r="AQ99" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="AR99" t="s">
         <v>98</v>
       </c>
-      <c r="AS99" s="18" t="s">
-        <v>282</v>
+      <c r="AS99" s="17" t="s">
+        <v>280</v>
       </c>
       <c r="AT99" t="s">
         <v>130</v>
@@ -17376,7 +17407,7 @@
         <v>3</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K100" t="s">
         <v>81</v>
@@ -17385,10 +17416,10 @@
         <v>91</v>
       </c>
       <c r="M100" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O100">
         <v>1</v>
@@ -17412,22 +17443,22 @@
         <v>8</v>
       </c>
       <c r="V100">
-        <v>68.35341142857132</v>
+        <v>68.911233999999922</v>
       </c>
       <c r="W100" t="s">
         <v>96</v>
       </c>
       <c r="X100">
-        <v>8.7492593729260584</v>
+        <v>4.8584169114278106</v>
       </c>
       <c r="Y100" t="s">
         <v>98</v>
       </c>
       <c r="Z100">
-        <v>7</v>
-      </c>
-      <c r="AA100" s="18" t="s">
-        <v>279</v>
+        <v>5</v>
+      </c>
+      <c r="AA100" s="17" t="s">
+        <v>277</v>
       </c>
       <c r="AB100" t="s">
         <v>126</v>
@@ -17466,7 +17497,7 @@
         <v>112</v>
       </c>
       <c r="AN100" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO100" t="s">
         <v>124</v>
@@ -17474,14 +17505,14 @@
       <c r="AP100" t="s">
         <v>121</v>
       </c>
-      <c r="AQ100" s="15" t="s">
-        <v>256</v>
+      <c r="AQ100" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="AR100" t="s">
         <v>98</v>
       </c>
-      <c r="AS100" s="18" t="s">
-        <v>282</v>
+      <c r="AS100" s="17" t="s">
+        <v>280</v>
       </c>
       <c r="AT100" t="s">
         <v>130</v>
@@ -17528,19 +17559,19 @@
         <v>3</v>
       </c>
       <c r="J101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K101" t="s">
         <v>81</v>
       </c>
       <c r="L101" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M101" t="s">
         <v>95</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O101">
         <v>1</v>
@@ -17549,19 +17580,19 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>68.484425000000002</v>
+        <v>68.35341142857132</v>
       </c>
       <c r="R101" t="s">
         <v>96</v>
       </c>
       <c r="S101">
-        <v>11.044472090197724</v>
+        <v>8.7492593729260584</v>
       </c>
       <c r="T101" t="s">
         <v>98</v>
       </c>
       <c r="U101">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V101">
         <v>68.911233999999922</v>
@@ -17578,8 +17609,8 @@
       <c r="Z101">
         <v>5</v>
       </c>
-      <c r="AA101" s="18" t="s">
-        <v>279</v>
+      <c r="AA101" s="17" t="s">
+        <v>277</v>
       </c>
       <c r="AB101" t="s">
         <v>126</v>
@@ -17618,7 +17649,7 @@
         <v>112</v>
       </c>
       <c r="AN101" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO101" t="s">
         <v>124</v>
@@ -17626,14 +17657,11 @@
       <c r="AP101" t="s">
         <v>121</v>
       </c>
-      <c r="AQ101" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="AR101" t="s">
         <v>98</v>
       </c>
-      <c r="AS101" s="18" t="s">
-        <v>282</v>
+      <c r="AS101" s="17" t="s">
+        <v>280</v>
       </c>
       <c r="AT101" t="s">
         <v>130</v>
@@ -17680,19 +17708,19 @@
         <v>3</v>
       </c>
       <c r="J102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K102" t="s">
         <v>81</v>
       </c>
       <c r="L102" t="s">
+        <v>91</v>
+      </c>
+      <c r="M102" t="s">
         <v>92</v>
       </c>
-      <c r="M102" t="s">
-        <v>95</v>
-      </c>
       <c r="N102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O102">
         <v>1</v>
@@ -17701,37 +17729,37 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>68.35341142857132</v>
+        <v>74.041709999999895</v>
       </c>
       <c r="R102" t="s">
         <v>96</v>
       </c>
       <c r="S102">
-        <v>8.7492593729260584</v>
+        <v>6.4951441952805258</v>
       </c>
       <c r="T102" t="s">
         <v>98</v>
       </c>
       <c r="U102">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V102">
-        <v>68.911233999999922</v>
+        <v>73.670745714285616</v>
       </c>
       <c r="W102" t="s">
         <v>96</v>
       </c>
       <c r="X102">
-        <v>4.8584169114278106</v>
+        <v>7.6332283142074129</v>
       </c>
       <c r="Y102" t="s">
         <v>98</v>
       </c>
       <c r="Z102">
-        <v>5</v>
-      </c>
-      <c r="AA102" s="18" t="s">
-        <v>279</v>
+        <v>7</v>
+      </c>
+      <c r="AA102" s="17" t="s">
+        <v>278</v>
       </c>
       <c r="AB102" t="s">
         <v>126</v>
@@ -17770,7 +17798,7 @@
         <v>112</v>
       </c>
       <c r="AN102" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO102" t="s">
         <v>124</v>
@@ -17778,11 +17806,14 @@
       <c r="AP102" t="s">
         <v>121</v>
       </c>
+      <c r="AQ102" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="AR102" t="s">
         <v>98</v>
       </c>
-      <c r="AS102" s="18" t="s">
-        <v>282</v>
+      <c r="AS102" s="17" t="s">
+        <v>280</v>
       </c>
       <c r="AT102" t="s">
         <v>130</v>
@@ -17829,7 +17860,7 @@
         <v>3</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K103" t="s">
         <v>81</v>
@@ -17838,10 +17869,10 @@
         <v>91</v>
       </c>
       <c r="M103" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O103">
         <v>1</v>
@@ -17865,22 +17896,22 @@
         <v>8</v>
       </c>
       <c r="V103">
-        <v>73.670745714285616</v>
+        <v>74.515687999999898</v>
       </c>
       <c r="W103" t="s">
         <v>96</v>
       </c>
       <c r="X103">
-        <v>7.6332283142074129</v>
+        <v>10.683855038970353</v>
       </c>
       <c r="Y103" t="s">
         <v>98</v>
       </c>
       <c r="Z103">
-        <v>7</v>
-      </c>
-      <c r="AA103" s="18" t="s">
-        <v>280</v>
+        <v>5</v>
+      </c>
+      <c r="AA103" s="17" t="s">
+        <v>278</v>
       </c>
       <c r="AB103" t="s">
         <v>126</v>
@@ -17919,7 +17950,7 @@
         <v>112</v>
       </c>
       <c r="AN103" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO103" t="s">
         <v>124</v>
@@ -17927,14 +17958,14 @@
       <c r="AP103" t="s">
         <v>121</v>
       </c>
-      <c r="AQ103" s="15" t="s">
-        <v>256</v>
+      <c r="AQ103" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="AR103" t="s">
         <v>98</v>
       </c>
-      <c r="AS103" s="18" t="s">
-        <v>282</v>
+      <c r="AS103" s="17" t="s">
+        <v>280</v>
       </c>
       <c r="AT103" t="s">
         <v>130</v>
@@ -17981,19 +18012,19 @@
         <v>3</v>
       </c>
       <c r="J104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K104" t="s">
         <v>81</v>
       </c>
       <c r="L104" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M104" t="s">
         <v>95</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O104">
         <v>1</v>
@@ -18002,19 +18033,19 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>74.041709999999895</v>
+        <v>73.670745714285616</v>
       </c>
       <c r="R104" t="s">
         <v>96</v>
       </c>
       <c r="S104">
-        <v>6.4951441952805258</v>
+        <v>7.6332283142074129</v>
       </c>
       <c r="T104" t="s">
         <v>98</v>
       </c>
       <c r="U104">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V104">
         <v>74.515687999999898</v>
@@ -18031,8 +18062,8 @@
       <c r="Z104">
         <v>5</v>
       </c>
-      <c r="AA104" s="18" t="s">
-        <v>280</v>
+      <c r="AA104" s="17" t="s">
+        <v>278</v>
       </c>
       <c r="AB104" t="s">
         <v>126</v>
@@ -18071,7 +18102,7 @@
         <v>112</v>
       </c>
       <c r="AN104" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="AO104" t="s">
         <v>124</v>
@@ -18079,14 +18110,11 @@
       <c r="AP104" t="s">
         <v>121</v>
       </c>
-      <c r="AQ104" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="AR104" t="s">
         <v>98</v>
       </c>
-      <c r="AS104" s="18" t="s">
-        <v>282</v>
+      <c r="AS104" s="17" t="s">
+        <v>280</v>
       </c>
       <c r="AT104" t="s">
         <v>130</v>
@@ -18104,154 +18132,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:50" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" t="s">
-        <v>56</v>
-      </c>
-      <c r="D105" t="s">
-        <v>143</v>
-      </c>
-      <c r="E105" t="s">
-        <v>74</v>
-      </c>
-      <c r="F105">
-        <v>1988</v>
-      </c>
-      <c r="G105" t="s">
-        <v>80</v>
-      </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="I105">
-        <v>3</v>
-      </c>
-      <c r="J105">
-        <v>3</v>
-      </c>
-      <c r="K105" t="s">
-        <v>81</v>
-      </c>
-      <c r="L105" t="s">
-        <v>92</v>
-      </c>
-      <c r="M105" t="s">
-        <v>95</v>
-      </c>
-      <c r="N105">
-        <v>3</v>
-      </c>
-      <c r="O105">
-        <v>1</v>
-      </c>
-      <c r="P105">
-        <v>1</v>
-      </c>
-      <c r="Q105">
-        <v>73.670745714285616</v>
-      </c>
-      <c r="R105" t="s">
-        <v>96</v>
-      </c>
-      <c r="S105">
-        <v>7.6332283142074129</v>
-      </c>
-      <c r="T105" t="s">
-        <v>98</v>
-      </c>
-      <c r="U105">
-        <v>7</v>
-      </c>
-      <c r="V105">
-        <v>74.515687999999898</v>
-      </c>
-      <c r="W105" t="s">
-        <v>96</v>
-      </c>
-      <c r="X105">
-        <v>10.683855038970353</v>
-      </c>
-      <c r="Y105" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z105">
-        <v>5</v>
-      </c>
-      <c r="AA105" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB105" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC105" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD105" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE105">
-        <v>1</v>
-      </c>
-      <c r="AF105" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG105" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH105" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI105" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ105" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK105" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL105" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM105" t="s">
-        <v>112</v>
-      </c>
-      <c r="AN105" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO105" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP105" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR105" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS105" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="AT105" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU105" t="s">
-        <v>131</v>
-      </c>
-      <c r="AV105" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW105">
-        <v>2</v>
-      </c>
-      <c r="AX105">
-        <v>2</v>
-      </c>
+    <row r="112" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AO112" s="4"/>
     </row>
     <row r="113" spans="17:41" x14ac:dyDescent="0.2">
       <c r="AO113" s="4"/>
@@ -18266,15 +18148,18 @@
       <c r="AO116" s="4"/>
     </row>
     <row r="117" spans="17:41" x14ac:dyDescent="0.2">
+      <c r="Q117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="X117" s="2"/>
       <c r="AO117" s="4"/>
     </row>
     <row r="118" spans="17:41" x14ac:dyDescent="0.2">
-      <c r="Q118" s="2"/>
       <c r="S118" s="2"/>
       <c r="X118" s="2"/>
       <c r="AO118" s="4"/>
     </row>
     <row r="119" spans="17:41" x14ac:dyDescent="0.2">
+      <c r="Q119" s="2"/>
       <c r="S119" s="2"/>
       <c r="X119" s="2"/>
       <c r="AO119" s="4"/>
@@ -18282,15 +18167,14 @@
     <row r="120" spans="17:41" x14ac:dyDescent="0.2">
       <c r="Q120" s="2"/>
       <c r="S120" s="2"/>
+      <c r="V120" s="2"/>
       <c r="X120" s="2"/>
       <c r="AO120" s="4"/>
     </row>
     <row r="121" spans="17:41" x14ac:dyDescent="0.2">
-      <c r="Q121" s="2"/>
       <c r="S121" s="2"/>
-      <c r="V121" s="2"/>
       <c r="X121" s="2"/>
-      <c r="AO121" s="4"/>
+      <c r="AO121" s="5"/>
     </row>
     <row r="122" spans="17:41" x14ac:dyDescent="0.2">
       <c r="S122" s="2"/>
@@ -18298,8 +18182,6 @@
       <c r="AO122" s="5"/>
     </row>
     <row r="123" spans="17:41" x14ac:dyDescent="0.2">
-      <c r="S123" s="2"/>
-      <c r="X123" s="2"/>
       <c r="AO123" s="5"/>
     </row>
     <row r="124" spans="17:41" x14ac:dyDescent="0.2">
@@ -18308,16 +18190,17 @@
     <row r="125" spans="17:41" x14ac:dyDescent="0.2">
       <c r="AO125" s="5"/>
     </row>
-    <row r="126" spans="17:41" x14ac:dyDescent="0.2">
-      <c r="AO126" s="5"/>
-    </row>
-    <row r="128" spans="17:41" x14ac:dyDescent="0.2">
-      <c r="S128" s="2"/>
-      <c r="X128" s="2"/>
-    </row>
+    <row r="127" spans="17:41" x14ac:dyDescent="0.2">
+      <c r="S127" s="2"/>
+      <c r="X127" s="2"/>
+    </row>
+    <row r="133" spans="1:40" x14ac:dyDescent="0.2"/>
     <row r="134" spans="1:40" x14ac:dyDescent="0.2"/>
-    <row r="135" spans="1:40" x14ac:dyDescent="0.2"/>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2"/>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S157" s="2"/>
+      <c r="X157" s="2"/>
+    </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="S158" s="2"/>
       <c r="X158" s="2"/>
@@ -18386,52 +18269,52 @@
       <c r="S174" s="2"/>
       <c r="X174" s="2"/>
     </row>
-    <row r="175" spans="19:24" x14ac:dyDescent="0.2">
-      <c r="S175" s="2"/>
-      <c r="X175" s="2"/>
-    </row>
-    <row r="180" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X180" s="2"/>
+    <row r="179" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X179" s="2"/>
+    </row>
+    <row r="195" spans="19:24" x14ac:dyDescent="0.2">
+      <c r="S195" s="2"/>
     </row>
     <row r="196" spans="19:24" x14ac:dyDescent="0.2">
       <c r="S196" s="2"/>
     </row>
-    <row r="197" spans="19:24" x14ac:dyDescent="0.2">
-      <c r="S197" s="2"/>
+    <row r="203" spans="19:24" x14ac:dyDescent="0.2">
+      <c r="S203" s="2"/>
     </row>
     <row r="204" spans="19:24" x14ac:dyDescent="0.2">
       <c r="S204" s="2"/>
     </row>
     <row r="205" spans="19:24" x14ac:dyDescent="0.2">
-      <c r="S205" s="2"/>
-    </row>
-    <row r="206" spans="19:24" x14ac:dyDescent="0.2">
-      <c r="X206" s="2"/>
+      <c r="X205" s="2"/>
+    </row>
+    <row r="215" spans="19:24" x14ac:dyDescent="0.2">
+      <c r="S215" s="2"/>
     </row>
     <row r="216" spans="19:24" x14ac:dyDescent="0.2">
       <c r="S216" s="2"/>
     </row>
     <row r="217" spans="19:24" x14ac:dyDescent="0.2">
-      <c r="S217" s="2"/>
+      <c r="V217" s="2"/>
+      <c r="X217" s="2"/>
     </row>
     <row r="218" spans="19:24" x14ac:dyDescent="0.2">
-      <c r="V218" s="2"/>
       <c r="X218" s="2"/>
     </row>
     <row r="219" spans="19:24" x14ac:dyDescent="0.2">
+      <c r="S219" s="2"/>
       <c r="X219" s="2"/>
     </row>
     <row r="220" spans="19:24" x14ac:dyDescent="0.2">
       <c r="S220" s="2"/>
-      <c r="X220" s="2"/>
     </row>
     <row r="221" spans="19:24" x14ac:dyDescent="0.2">
-      <c r="S221" s="2"/>
+      <c r="X221" s="2"/>
     </row>
     <row r="222" spans="19:24" x14ac:dyDescent="0.2">
       <c r="X222" s="2"/>
     </row>
     <row r="223" spans="19:24" x14ac:dyDescent="0.2">
+      <c r="S223" s="2"/>
       <c r="X223" s="2"/>
     </row>
     <row r="224" spans="19:24" x14ac:dyDescent="0.2">
@@ -18456,11 +18339,11 @@
     </row>
     <row r="229" spans="19:24" x14ac:dyDescent="0.2">
       <c r="S229" s="2"/>
+      <c r="V229" s="2"/>
       <c r="X229" s="2"/>
     </row>
     <row r="230" spans="19:24" x14ac:dyDescent="0.2">
       <c r="S230" s="2"/>
-      <c r="V230" s="2"/>
       <c r="X230" s="2"/>
     </row>
     <row r="231" spans="19:24" x14ac:dyDescent="0.2">
@@ -18472,14 +18355,14 @@
       <c r="X232" s="2"/>
     </row>
     <row r="233" spans="19:24" x14ac:dyDescent="0.2">
-      <c r="S233" s="2"/>
       <c r="X233" s="2"/>
     </row>
     <row r="234" spans="19:24" x14ac:dyDescent="0.2">
+      <c r="V234" s="2"/>
       <c r="X234" s="2"/>
     </row>
     <row r="235" spans="19:24" x14ac:dyDescent="0.2">
-      <c r="V235" s="2"/>
+      <c r="S235" s="2"/>
       <c r="X235" s="2"/>
     </row>
     <row r="236" spans="19:24" x14ac:dyDescent="0.2">
@@ -18503,7 +18386,7 @@
       <c r="X240" s="2"/>
     </row>
     <row r="241" spans="17:24" x14ac:dyDescent="0.2">
-      <c r="S241" s="2"/>
+      <c r="V241" s="2"/>
       <c r="X241" s="2"/>
     </row>
     <row r="242" spans="17:24" x14ac:dyDescent="0.2">
@@ -18511,7 +18394,6 @@
       <c r="X242" s="2"/>
     </row>
     <row r="243" spans="17:24" x14ac:dyDescent="0.2">
-      <c r="V243" s="2"/>
       <c r="X243" s="2"/>
     </row>
     <row r="244" spans="17:24" x14ac:dyDescent="0.2">
@@ -18524,10 +18406,11 @@
       <c r="X246" s="2"/>
     </row>
     <row r="247" spans="17:24" x14ac:dyDescent="0.2">
-      <c r="X247" s="2"/>
+      <c r="S247" s="2"/>
     </row>
     <row r="248" spans="17:24" x14ac:dyDescent="0.2">
       <c r="S248" s="2"/>
+      <c r="X248" s="2"/>
     </row>
     <row r="249" spans="17:24" x14ac:dyDescent="0.2">
       <c r="S249" s="2"/>
@@ -18546,39 +18429,39 @@
       <c r="X252" s="2"/>
     </row>
     <row r="253" spans="17:24" x14ac:dyDescent="0.2">
-      <c r="S253" s="2"/>
+      <c r="Q253" s="2"/>
       <c r="X253" s="2"/>
     </row>
     <row r="254" spans="17:24" x14ac:dyDescent="0.2">
       <c r="Q254" s="2"/>
+      <c r="V254" s="2"/>
       <c r="X254" s="2"/>
     </row>
     <row r="255" spans="17:24" x14ac:dyDescent="0.2">
-      <c r="Q255" s="2"/>
-      <c r="V255" s="2"/>
+      <c r="S255" s="2"/>
       <c r="X255" s="2"/>
     </row>
     <row r="256" spans="17:24" x14ac:dyDescent="0.2">
       <c r="S256" s="2"/>
+      <c r="V256" s="2"/>
       <c r="X256" s="2"/>
     </row>
     <row r="257" spans="17:24" x14ac:dyDescent="0.2">
-      <c r="S257" s="2"/>
-      <c r="V257" s="2"/>
       <c r="X257" s="2"/>
     </row>
     <row r="258" spans="17:24" x14ac:dyDescent="0.2">
       <c r="X258" s="2"/>
     </row>
     <row r="259" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="S259" s="2"/>
       <c r="X259" s="2"/>
     </row>
     <row r="260" spans="17:24" x14ac:dyDescent="0.2">
       <c r="S260" s="2"/>
-      <c r="X260" s="2"/>
     </row>
     <row r="261" spans="17:24" x14ac:dyDescent="0.2">
       <c r="S261" s="2"/>
+      <c r="X261" s="2"/>
     </row>
     <row r="262" spans="17:24" x14ac:dyDescent="0.2">
       <c r="S262" s="2"/>
@@ -18590,10 +18473,12 @@
     </row>
     <row r="264" spans="17:24" x14ac:dyDescent="0.2">
       <c r="S264" s="2"/>
-      <c r="X264" s="2"/>
     </row>
     <row r="265" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="Q265" s="2"/>
       <c r="S265" s="2"/>
+      <c r="V265" s="2"/>
+      <c r="X265" s="2"/>
     </row>
     <row r="266" spans="17:24" x14ac:dyDescent="0.2">
       <c r="Q266" s="2"/>
@@ -18602,26 +18487,24 @@
       <c r="X266" s="2"/>
     </row>
     <row r="267" spans="17:24" x14ac:dyDescent="0.2">
-      <c r="Q267" s="2"/>
       <c r="S267" s="2"/>
-      <c r="V267" s="2"/>
       <c r="X267" s="2"/>
     </row>
     <row r="268" spans="17:24" x14ac:dyDescent="0.2">
       <c r="S268" s="2"/>
+      <c r="V268" s="2"/>
       <c r="X268" s="2"/>
     </row>
     <row r="269" spans="17:24" x14ac:dyDescent="0.2">
       <c r="S269" s="2"/>
-      <c r="V269" s="2"/>
-      <c r="X269" s="2"/>
     </row>
     <row r="270" spans="17:24" x14ac:dyDescent="0.2">
       <c r="S270" s="2"/>
+      <c r="V270" s="2"/>
+      <c r="X270" s="2"/>
     </row>
     <row r="271" spans="17:24" x14ac:dyDescent="0.2">
       <c r="S271" s="2"/>
-      <c r="V271" s="2"/>
       <c r="X271" s="2"/>
     </row>
     <row r="272" spans="17:24" x14ac:dyDescent="0.2">
@@ -18637,13 +18520,14 @@
       <c r="X274" s="2"/>
     </row>
     <row r="275" spans="17:24" x14ac:dyDescent="0.2">
-      <c r="S275" s="2"/>
       <c r="X275" s="2"/>
     </row>
     <row r="276" spans="17:24" x14ac:dyDescent="0.2">
       <c r="X276" s="2"/>
     </row>
     <row r="277" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="Q277" s="2"/>
+      <c r="V277" s="2"/>
       <c r="X277" s="2"/>
     </row>
     <row r="278" spans="17:24" x14ac:dyDescent="0.2">
@@ -18652,8 +18536,7 @@
       <c r="X278" s="2"/>
     </row>
     <row r="279" spans="17:24" x14ac:dyDescent="0.2">
-      <c r="Q279" s="2"/>
-      <c r="V279" s="2"/>
+      <c r="S279" s="2"/>
       <c r="X279" s="2"/>
     </row>
     <row r="280" spans="17:24" x14ac:dyDescent="0.2">
@@ -18666,10 +18549,10 @@
     </row>
     <row r="282" spans="17:24" x14ac:dyDescent="0.2">
       <c r="S282" s="2"/>
-      <c r="X282" s="2"/>
     </row>
     <row r="283" spans="17:24" x14ac:dyDescent="0.2">
       <c r="S283" s="2"/>
+      <c r="X283" s="2"/>
     </row>
     <row r="284" spans="17:24" x14ac:dyDescent="0.2">
       <c r="S284" s="2"/>
@@ -18677,10 +18560,10 @@
     </row>
     <row r="285" spans="17:24" x14ac:dyDescent="0.2">
       <c r="S285" s="2"/>
-      <c r="X285" s="2"/>
     </row>
     <row r="286" spans="17:24" x14ac:dyDescent="0.2">
       <c r="S286" s="2"/>
+      <c r="X286" s="2"/>
     </row>
     <row r="287" spans="17:24" x14ac:dyDescent="0.2">
       <c r="S287" s="2"/>
@@ -18690,13 +18573,9 @@
       <c r="S288" s="2"/>
       <c r="X288" s="2"/>
     </row>
-    <row r="289" spans="19:24" x14ac:dyDescent="0.2">
-      <c r="S289" s="2"/>
-      <c r="X289" s="2"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AX96">
-    <sortCondition ref="B2:B96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AX95">
+    <sortCondition ref="B2:B95"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/data/02_data_extraction/data_extraction_setTR_checkedJS_checkedSD.xlsx
+++ b/data/02_data_extraction/data_extraction_setTR_checkedJS_checkedSD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyadimri/Library/CloudStorage/Dropbox/GitHub_Repo/Green_Nest_Material/data/02_data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF18F56-B958-CF4C-B171-0C0899F45CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5398BA86-2C34-0747-8217-4C306B8B0C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="66920" windowHeight="24440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="71480" windowHeight="26740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1389,7 +1389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1420,6 +1420,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1434,7 +1440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1459,6 +1465,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1800,13 +1809,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DP288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N102" sqref="N102:N104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="10.83203125" customWidth="1"/>
+    <col min="1" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
+    <col min="13" max="26" width="10.83203125" customWidth="1"/>
     <col min="27" max="27" width="23.6640625" customWidth="1"/>
     <col min="28" max="50" width="10.83203125" customWidth="1"/>
   </cols>
@@ -10431,2721 +10443,2721 @@
       <c r="DO53"/>
       <c r="DP53"/>
     </row>
-    <row r="54" spans="1:120" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="54" spans="1:120" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="B54" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="24">
         <v>1988</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="H54" s="24">
+        <v>1</v>
+      </c>
+      <c r="I54" s="24">
+        <v>1</v>
+      </c>
+      <c r="J54" s="24">
+        <v>1</v>
+      </c>
+      <c r="K54" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="24">
         <v>2</v>
       </c>
-      <c r="O54">
-        <v>1</v>
-      </c>
-      <c r="P54">
-        <v>1</v>
-      </c>
-      <c r="Q54">
+      <c r="O54" s="24">
+        <v>1</v>
+      </c>
+      <c r="P54" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="24">
         <v>41.451610000000002</v>
       </c>
-      <c r="R54" t="s">
+      <c r="R54" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S54">
+      <c r="S54" s="24">
         <v>1.935484</v>
       </c>
-      <c r="T54" t="s">
-        <v>98</v>
-      </c>
-      <c r="U54">
+      <c r="T54" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U54" s="24">
         <v>4</v>
       </c>
-      <c r="V54">
+      <c r="V54" s="24">
         <v>39.516129999999897</v>
       </c>
-      <c r="W54" t="s">
+      <c r="W54" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="X54">
+      <c r="X54" s="24">
         <v>3.870968</v>
       </c>
-      <c r="Y54" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z54">
+      <c r="Y54" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z54" s="24">
         <v>4</v>
       </c>
-      <c r="AA54" s="10" t="s">
+      <c r="AA54" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AB54" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AC54" t="s">
+      <c r="AC54" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AD54" t="s">
+      <c r="AD54" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="AE54">
-        <v>1</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ54" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK54" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL54" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM54" t="s">
+      <c r="AE54" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF54" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG54" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH54" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI54" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ54" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK54" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL54" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM54" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AN54" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO54" t="s">
+      <c r="AN54" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO54" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AP54" t="s">
+      <c r="AP54" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AQ54" s="14" t="s">
+      <c r="AQ54" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="AR54" t="s">
+      <c r="AR54" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AS54" s="14" t="s">
+      <c r="AS54" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="AT54" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU54" t="s">
+      <c r="AT54" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU54" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AV54" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW54">
+      <c r="AV54" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW54" s="24">
         <v>2</v>
       </c>
-      <c r="AX54">
+      <c r="AX54" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:120" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:120" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="B55" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="24">
         <v>1988</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
+      <c r="H55" s="24">
+        <v>1</v>
+      </c>
+      <c r="I55" s="24">
+        <v>1</v>
+      </c>
+      <c r="J55" s="24">
         <v>2</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="P55">
-        <v>1</v>
-      </c>
-      <c r="Q55">
+      <c r="N55" s="24">
+        <v>1</v>
+      </c>
+      <c r="O55" s="24">
+        <v>1</v>
+      </c>
+      <c r="P55" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="24">
         <v>41.451610000000002</v>
       </c>
-      <c r="R55" t="s">
+      <c r="R55" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="24">
         <v>1.935484</v>
       </c>
-      <c r="T55" t="s">
-        <v>98</v>
-      </c>
-      <c r="U55">
+      <c r="T55" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U55" s="24">
         <v>4</v>
       </c>
-      <c r="V55">
+      <c r="V55" s="24">
         <v>38.548389999999898</v>
       </c>
-      <c r="W55" t="s">
+      <c r="W55" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="X55">
+      <c r="X55" s="24">
         <v>3.870968</v>
       </c>
-      <c r="Y55" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z55">
+      <c r="Y55" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z55" s="24">
         <v>4</v>
       </c>
-      <c r="AA55" s="10" t="s">
+      <c r="AA55" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AB55" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AC55" t="s">
+      <c r="AC55" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AD55" t="s">
+      <c r="AD55" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="AE55">
-        <v>1</v>
-      </c>
-      <c r="AF55" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH55" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI55" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ55" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK55" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL55" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM55" t="s">
+      <c r="AE55" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF55" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG55" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH55" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI55" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ55" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK55" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL55" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM55" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AN55" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO55" t="s">
+      <c r="AN55" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO55" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AP55" t="s">
+      <c r="AP55" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AQ55" s="14" t="s">
+      <c r="AQ55" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="AR55" t="s">
+      <c r="AR55" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AS55" s="14" t="s">
+      <c r="AS55" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="AT55" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU55" t="s">
+      <c r="AT55" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU55" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AV55" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW55">
+      <c r="AV55" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW55" s="24">
         <v>2</v>
       </c>
-      <c r="AX55">
+      <c r="AX55" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:120" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:120" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="B56" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="24">
         <v>1988</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56">
+      <c r="H56" s="24">
+        <v>1</v>
+      </c>
+      <c r="I56" s="24">
+        <v>1</v>
+      </c>
+      <c r="J56" s="24">
         <v>3</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="24">
         <v>3</v>
       </c>
-      <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="P56">
-        <v>1</v>
-      </c>
-      <c r="Q56">
+      <c r="O56" s="24">
+        <v>1</v>
+      </c>
+      <c r="P56" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="24">
         <v>39.516129999999897</v>
       </c>
-      <c r="R56" t="s">
+      <c r="R56" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S56">
+      <c r="S56" s="24">
         <v>39.516129999999897</v>
       </c>
-      <c r="T56" t="s">
-        <v>98</v>
-      </c>
-      <c r="U56">
+      <c r="T56" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U56" s="24">
         <v>4</v>
       </c>
-      <c r="V56">
+      <c r="V56" s="24">
         <v>38.548389999999898</v>
       </c>
-      <c r="W56" t="s">
+      <c r="W56" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="X56">
+      <c r="X56" s="24">
         <v>3.870968</v>
       </c>
-      <c r="Y56" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z56">
+      <c r="Y56" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z56" s="24">
         <v>4</v>
       </c>
-      <c r="AA56" s="10" t="s">
+      <c r="AA56" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AB56" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AC56" t="s">
+      <c r="AC56" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AD56" t="s">
+      <c r="AD56" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="AE56">
-        <v>1</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI56" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ56" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK56" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL56" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM56" t="s">
+      <c r="AE56" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF56" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG56" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH56" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI56" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ56" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK56" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL56" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM56" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AN56" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO56" t="s">
+      <c r="AN56" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO56" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AP56" t="s">
+      <c r="AP56" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AR56" t="s">
+      <c r="AR56" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AS56" s="14" t="s">
+      <c r="AS56" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="AT56" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU56" t="s">
+      <c r="AT56" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU56" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AV56" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW56">
+      <c r="AV56" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW56" s="24">
         <v>2</v>
       </c>
-      <c r="AX56">
+      <c r="AX56" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:120" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:120" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="B57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="24">
         <v>1988</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57" t="s">
+      <c r="H57" s="24">
+        <v>1</v>
+      </c>
+      <c r="I57" s="24">
+        <v>1</v>
+      </c>
+      <c r="J57" s="24">
+        <v>1</v>
+      </c>
+      <c r="K57" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="24">
         <v>2</v>
       </c>
-      <c r="O57">
-        <v>1</v>
-      </c>
-      <c r="P57">
-        <v>1</v>
-      </c>
-      <c r="Q57">
+      <c r="O57" s="24">
+        <v>1</v>
+      </c>
+      <c r="P57" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="24">
         <v>71.451610000000002</v>
       </c>
-      <c r="R57" t="s">
+      <c r="R57" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S57">
+      <c r="S57" s="24">
         <v>1.935484</v>
       </c>
-      <c r="T57" t="s">
-        <v>98</v>
-      </c>
-      <c r="U57">
+      <c r="T57" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U57" s="24">
         <v>4</v>
       </c>
-      <c r="V57">
+      <c r="V57" s="24">
         <v>69.032259999999894</v>
       </c>
-      <c r="W57" t="s">
+      <c r="W57" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="X57">
+      <c r="X57" s="24">
         <v>4.8387099999999901</v>
       </c>
-      <c r="Y57" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z57">
+      <c r="Y57" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z57" s="24">
         <v>4</v>
       </c>
-      <c r="AA57" s="10" t="s">
+      <c r="AA57" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AB57" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AC57" t="s">
+      <c r="AC57" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AD57" t="s">
+      <c r="AD57" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="AE57">
-        <v>1</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI57" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ57" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK57" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL57" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM57" t="s">
+      <c r="AE57" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF57" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG57" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH57" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI57" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ57" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK57" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL57" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM57" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AN57" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO57" t="s">
+      <c r="AN57" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO57" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AP57" t="s">
+      <c r="AP57" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AQ57" s="14" t="s">
+      <c r="AQ57" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="AR57" t="s">
+      <c r="AR57" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AS57" s="14" t="s">
+      <c r="AS57" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="AT57" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU57" t="s">
+      <c r="AT57" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU57" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AV57" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW57">
+      <c r="AV57" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW57" s="24">
         <v>2</v>
       </c>
-      <c r="AX57">
+      <c r="AX57" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:120" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:120" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="B58" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="24">
         <v>1988</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
+      <c r="H58" s="24">
+        <v>1</v>
+      </c>
+      <c r="I58" s="24">
+        <v>1</v>
+      </c>
+      <c r="J58" s="24">
         <v>2</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>1</v>
-      </c>
-      <c r="P58">
-        <v>1</v>
-      </c>
-      <c r="Q58">
+      <c r="N58" s="24">
+        <v>1</v>
+      </c>
+      <c r="O58" s="24">
+        <v>1</v>
+      </c>
+      <c r="P58" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="24">
         <v>71.451610000000002</v>
       </c>
-      <c r="R58" t="s">
+      <c r="R58" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S58">
+      <c r="S58" s="24">
         <v>1.935484</v>
       </c>
-      <c r="T58" t="s">
-        <v>98</v>
-      </c>
-      <c r="U58">
+      <c r="T58" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U58" s="24">
         <v>4</v>
       </c>
-      <c r="V58">
+      <c r="V58" s="24">
         <v>70.483869999999897</v>
       </c>
-      <c r="W58" t="s">
+      <c r="W58" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="X58">
+      <c r="X58" s="24">
         <v>1.935484</v>
       </c>
-      <c r="Y58" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z58">
+      <c r="Y58" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z58" s="24">
         <v>4</v>
       </c>
-      <c r="AA58" s="10" t="s">
+      <c r="AA58" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AB58" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AC58" t="s">
+      <c r="AC58" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AD58" t="s">
+      <c r="AD58" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="AE58">
-        <v>1</v>
-      </c>
-      <c r="AF58" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH58" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI58" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ58" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK58" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL58" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM58" t="s">
+      <c r="AE58" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG58" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH58" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI58" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ58" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK58" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL58" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM58" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AN58" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO58" t="s">
+      <c r="AN58" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO58" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AP58" t="s">
+      <c r="AP58" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AQ58" s="14" t="s">
+      <c r="AQ58" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="AR58" t="s">
+      <c r="AR58" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AS58" s="14" t="s">
+      <c r="AS58" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="AT58" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU58" t="s">
+      <c r="AT58" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU58" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AV58" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW58">
+      <c r="AV58" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW58" s="24">
         <v>2</v>
       </c>
-      <c r="AX58">
+      <c r="AX58" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:120" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:120" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="B59" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="24">
         <v>1988</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59">
+      <c r="H59" s="24">
+        <v>1</v>
+      </c>
+      <c r="I59" s="24">
+        <v>1</v>
+      </c>
+      <c r="J59" s="24">
         <v>3</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="24">
         <v>3</v>
       </c>
-      <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="P59">
-        <v>1</v>
-      </c>
-      <c r="Q59">
+      <c r="O59" s="24">
+        <v>1</v>
+      </c>
+      <c r="P59" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="24">
         <v>69.032259999999894</v>
       </c>
-      <c r="R59" t="s">
+      <c r="R59" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S59">
+      <c r="S59" s="24">
         <v>4.8387099999999901</v>
       </c>
-      <c r="T59" t="s">
-        <v>98</v>
-      </c>
-      <c r="U59">
+      <c r="T59" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U59" s="24">
         <v>4</v>
       </c>
-      <c r="V59">
+      <c r="V59" s="24">
         <v>70.483869999999897</v>
       </c>
-      <c r="W59" t="s">
+      <c r="W59" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="X59">
+      <c r="X59" s="24">
         <v>1.935484</v>
       </c>
-      <c r="Y59" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z59">
+      <c r="Y59" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z59" s="24">
         <v>4</v>
       </c>
-      <c r="AA59" s="10" t="s">
+      <c r="AA59" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AB59" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AC59" t="s">
+      <c r="AC59" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AD59" t="s">
+      <c r="AD59" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="AE59">
-        <v>1</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI59" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ59" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK59" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL59" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM59" t="s">
+      <c r="AE59" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG59" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH59" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI59" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ59" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK59" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL59" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM59" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AN59" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO59" t="s">
+      <c r="AN59" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO59" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AP59" t="s">
+      <c r="AP59" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AR59" t="s">
+      <c r="AR59" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AS59" s="14" t="s">
+      <c r="AS59" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="AT59" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU59" t="s">
+      <c r="AT59" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU59" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AV59" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW59">
+      <c r="AV59" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW59" s="24">
         <v>2</v>
       </c>
-      <c r="AX59">
+      <c r="AX59" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:120" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:120" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="B60" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="24">
         <v>1988</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60" t="s">
+      <c r="H60" s="24">
+        <v>1</v>
+      </c>
+      <c r="I60" s="24">
+        <v>1</v>
+      </c>
+      <c r="J60" s="24">
+        <v>1</v>
+      </c>
+      <c r="K60" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="24">
         <v>2</v>
       </c>
-      <c r="O60">
-        <v>1</v>
-      </c>
-      <c r="P60">
-        <v>1</v>
-      </c>
-      <c r="Q60">
+      <c r="O60" s="24">
+        <v>1</v>
+      </c>
+      <c r="P60" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="24">
         <v>76.290319999999895</v>
       </c>
-      <c r="R60" t="s">
+      <c r="R60" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S60">
+      <c r="S60" s="24">
         <v>1.935484</v>
       </c>
-      <c r="T60" t="s">
-        <v>98</v>
-      </c>
-      <c r="U60">
+      <c r="T60" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U60" s="24">
         <v>4</v>
       </c>
-      <c r="V60">
+      <c r="V60" s="24">
         <v>74.354839999999896</v>
       </c>
-      <c r="W60" t="s">
+      <c r="W60" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="X60">
+      <c r="X60" s="24">
         <v>3.870968</v>
       </c>
-      <c r="Y60" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z60">
+      <c r="Y60" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z60" s="24">
         <v>4</v>
       </c>
-      <c r="AA60" s="10" t="s">
+      <c r="AA60" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AB60" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AC60" t="s">
+      <c r="AC60" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AD60" t="s">
+      <c r="AD60" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="AE60">
-        <v>1</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH60" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI60" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ60" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK60" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL60" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM60" t="s">
+      <c r="AE60" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF60" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG60" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH60" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI60" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ60" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK60" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL60" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM60" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AN60" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO60" t="s">
+      <c r="AN60" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO60" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AP60" t="s">
+      <c r="AP60" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AQ60" s="14" t="s">
+      <c r="AQ60" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="AR60" t="s">
+      <c r="AR60" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AS60" s="14" t="s">
+      <c r="AS60" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="AT60" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU60" t="s">
+      <c r="AT60" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU60" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AV60" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW60">
+      <c r="AV60" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW60" s="24">
         <v>2</v>
       </c>
-      <c r="AX60">
+      <c r="AX60" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:120" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="61" spans="1:120" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="B61" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="24">
         <v>1988</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
+      <c r="H61" s="24">
+        <v>1</v>
+      </c>
+      <c r="I61" s="24">
+        <v>1</v>
+      </c>
+      <c r="J61" s="24">
         <v>2</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>1</v>
-      </c>
-      <c r="P61">
-        <v>1</v>
-      </c>
-      <c r="Q61">
+      <c r="N61" s="24">
+        <v>1</v>
+      </c>
+      <c r="O61" s="24">
+        <v>1</v>
+      </c>
+      <c r="P61" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="24">
         <v>76.290319999999895</v>
       </c>
-      <c r="R61" t="s">
+      <c r="R61" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S61">
+      <c r="S61" s="24">
         <v>1.935484</v>
       </c>
-      <c r="T61" t="s">
-        <v>98</v>
-      </c>
-      <c r="U61">
+      <c r="T61" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U61" s="24">
         <v>4</v>
       </c>
-      <c r="V61">
+      <c r="V61" s="24">
         <v>72.903229999999894</v>
       </c>
-      <c r="W61" t="s">
+      <c r="W61" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="X61">
+      <c r="X61" s="24">
         <v>5.8064520000000002</v>
       </c>
-      <c r="Y61" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z61">
+      <c r="Y61" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z61" s="24">
         <v>4</v>
       </c>
-      <c r="AA61" s="10" t="s">
+      <c r="AA61" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AB61" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AC61" t="s">
+      <c r="AC61" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AD61" t="s">
+      <c r="AD61" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="AE61">
-        <v>1</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH61" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI61" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK61" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL61" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM61" t="s">
+      <c r="AE61" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF61" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG61" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH61" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI61" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ61" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK61" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL61" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM61" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AN61" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO61" t="s">
+      <c r="AN61" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO61" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AP61" t="s">
+      <c r="AP61" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AQ61" s="14" t="s">
+      <c r="AQ61" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="AR61" t="s">
+      <c r="AR61" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AS61" s="14" t="s">
+      <c r="AS61" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="AT61" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU61" t="s">
+      <c r="AT61" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU61" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AV61" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW61">
+      <c r="AV61" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW61" s="24">
         <v>2</v>
       </c>
-      <c r="AX61">
+      <c r="AX61" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:120" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="1:120" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="B62" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="24">
         <v>1988</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
+      <c r="H62" s="24">
+        <v>1</v>
+      </c>
+      <c r="I62" s="24">
+        <v>1</v>
+      </c>
+      <c r="J62" s="24">
         <v>3</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="24">
         <v>3</v>
       </c>
-      <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
-      <c r="Q62">
+      <c r="O62" s="24">
+        <v>1</v>
+      </c>
+      <c r="P62" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="24">
         <v>74.354839999999896</v>
       </c>
-      <c r="R62" t="s">
+      <c r="R62" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S62">
+      <c r="S62" s="24">
         <v>3.870968</v>
       </c>
-      <c r="T62" t="s">
-        <v>98</v>
-      </c>
-      <c r="U62">
+      <c r="T62" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U62" s="24">
         <v>4</v>
       </c>
-      <c r="V62">
+      <c r="V62" s="24">
         <v>72.903229999999894</v>
       </c>
-      <c r="W62" t="s">
+      <c r="W62" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="X62">
+      <c r="X62" s="24">
         <v>5.8064520000000002</v>
       </c>
-      <c r="Y62" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z62">
+      <c r="Y62" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z62" s="24">
         <v>4</v>
       </c>
-      <c r="AA62" s="10" t="s">
+      <c r="AA62" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AB62" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AC62" t="s">
+      <c r="AC62" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AD62" t="s">
+      <c r="AD62" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="AE62">
-        <v>1</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH62" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI62" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ62" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK62" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL62" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM62" t="s">
+      <c r="AE62" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF62" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG62" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH62" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI62" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ62" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK62" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL62" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM62" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AN62" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO62" t="s">
+      <c r="AN62" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO62" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AP62" t="s">
+      <c r="AP62" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AR62" t="s">
+      <c r="AR62" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AS62" s="14" t="s">
+      <c r="AS62" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="AT62" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU62" t="s">
+      <c r="AT62" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU62" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AV62" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW62">
+      <c r="AV62" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW62" s="24">
         <v>2</v>
       </c>
-      <c r="AX62">
+      <c r="AX62" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:120" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="1:120" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="B63" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="24">
         <v>1988</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63">
+      <c r="H63" s="24">
+        <v>1</v>
+      </c>
+      <c r="I63" s="24">
         <v>2</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="24">
         <v>4</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L63" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="24">
         <v>2</v>
       </c>
-      <c r="O63">
-        <v>1</v>
-      </c>
-      <c r="P63">
-        <v>1</v>
-      </c>
-      <c r="Q63">
+      <c r="O63" s="24">
+        <v>1</v>
+      </c>
+      <c r="P63" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="24">
         <v>40.413789999999899</v>
       </c>
-      <c r="R63" t="s">
+      <c r="R63" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S63">
+      <c r="S63" s="24">
         <v>3.862069</v>
       </c>
-      <c r="T63" t="s">
-        <v>98</v>
-      </c>
-      <c r="U63">
+      <c r="T63" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U63" s="24">
         <v>4</v>
       </c>
-      <c r="V63">
+      <c r="V63" s="24">
         <v>40.413789999999899</v>
       </c>
-      <c r="W63" t="s">
+      <c r="W63" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="X63">
+      <c r="X63" s="24">
         <v>1.6723249</v>
       </c>
-      <c r="Y63" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z63">
+      <c r="Y63" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z63" s="24">
         <v>3</v>
       </c>
-      <c r="AA63" s="10" t="s">
+      <c r="AA63" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AB63" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AC63" t="s">
+      <c r="AC63" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AD63" t="s">
+      <c r="AD63" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="AE63">
-        <v>1</v>
-      </c>
-      <c r="AF63" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH63" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI63" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ63" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK63" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL63" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM63" t="s">
+      <c r="AE63" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF63" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG63" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH63" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI63" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ63" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK63" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL63" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM63" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AN63" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO63" t="s">
+      <c r="AN63" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO63" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AP63" t="s">
+      <c r="AP63" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AQ63" s="14" t="s">
+      <c r="AQ63" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="AR63" t="s">
+      <c r="AR63" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AS63" s="14" t="s">
+      <c r="AS63" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="AT63" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU63" t="s">
+      <c r="AT63" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU63" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AV63" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW63">
+      <c r="AV63" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW63" s="24">
         <v>2</v>
       </c>
-      <c r="AX63">
+      <c r="AX63" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:120" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:120" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>56</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="B64" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="24">
         <v>1988</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64">
+      <c r="H64" s="24">
+        <v>1</v>
+      </c>
+      <c r="I64" s="24">
         <v>2</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="24">
         <v>5</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L64" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
-      <c r="Q64">
+      <c r="N64" s="24">
+        <v>1</v>
+      </c>
+      <c r="O64" s="24">
+        <v>1</v>
+      </c>
+      <c r="P64" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="24">
         <v>40.413789999999899</v>
       </c>
-      <c r="R64" t="s">
+      <c r="R64" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S64">
+      <c r="S64" s="24">
         <v>3.862069</v>
       </c>
-      <c r="T64" t="s">
-        <v>98</v>
-      </c>
-      <c r="U64">
+      <c r="T64" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U64" s="24">
         <v>4</v>
       </c>
-      <c r="V64">
+      <c r="V64" s="24">
         <v>35.586210000000001</v>
       </c>
-      <c r="W64" t="s">
+      <c r="W64" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="X64">
+      <c r="X64" s="24">
         <v>0.96551719999999897</v>
       </c>
-      <c r="Y64" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z64">
-        <v>1</v>
-      </c>
-      <c r="AA64" s="10" t="s">
+      <c r="Y64" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z64" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AB64" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AC64" t="s">
+      <c r="AC64" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AD64" t="s">
+      <c r="AD64" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="AE64">
-        <v>1</v>
-      </c>
-      <c r="AF64" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH64" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI64" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ64" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK64" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL64" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM64" t="s">
+      <c r="AE64" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF64" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG64" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH64" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI64" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ64" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK64" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL64" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM64" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AN64" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO64" t="s">
+      <c r="AN64" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO64" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AP64" t="s">
+      <c r="AP64" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AQ64" s="14" t="s">
+      <c r="AQ64" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="AR64" t="s">
+      <c r="AR64" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AS64" s="14" t="s">
+      <c r="AS64" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="AT64" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU64" t="s">
+      <c r="AT64" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU64" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AV64" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW64">
+      <c r="AV64" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW64" s="24">
         <v>2</v>
       </c>
-      <c r="AX64">
+      <c r="AX64" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:50" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:50" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="B65" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="24">
         <v>1988</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65">
+      <c r="H65" s="24">
+        <v>1</v>
+      </c>
+      <c r="I65" s="24">
         <v>2</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="24">
         <v>6</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L65" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="24">
         <v>3</v>
       </c>
-      <c r="O65">
-        <v>1</v>
-      </c>
-      <c r="P65">
-        <v>1</v>
-      </c>
-      <c r="Q65">
+      <c r="O65" s="24">
+        <v>1</v>
+      </c>
+      <c r="P65" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="24">
         <v>40.413789999999899</v>
       </c>
-      <c r="R65" t="s">
+      <c r="R65" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S65">
+      <c r="S65" s="24">
         <v>1.6723249</v>
       </c>
-      <c r="T65" t="s">
-        <v>98</v>
-      </c>
-      <c r="U65">
+      <c r="T65" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U65" s="24">
         <v>3</v>
       </c>
-      <c r="V65">
+      <c r="V65" s="24">
         <v>35.586210000000001</v>
       </c>
-      <c r="W65" t="s">
+      <c r="W65" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="X65">
+      <c r="X65" s="24">
         <v>0.96551719999999897</v>
       </c>
-      <c r="Y65" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z65">
-        <v>1</v>
-      </c>
-      <c r="AA65" s="10" t="s">
+      <c r="Y65" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z65" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AB65" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AC65" t="s">
+      <c r="AC65" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AD65" t="s">
+      <c r="AD65" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="AE65">
-        <v>1</v>
-      </c>
-      <c r="AF65" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG65" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH65" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI65" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ65" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK65" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL65" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM65" t="s">
+      <c r="AE65" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF65" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG65" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH65" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI65" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ65" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK65" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL65" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM65" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AN65" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO65" t="s">
+      <c r="AN65" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO65" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AP65" t="s">
+      <c r="AP65" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AR65" t="s">
+      <c r="AR65" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AS65" s="14" t="s">
+      <c r="AS65" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="AT65" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU65" t="s">
+      <c r="AT65" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU65" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AV65" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW65">
+      <c r="AV65" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW65" s="24">
         <v>2</v>
       </c>
-      <c r="AX65">
+      <c r="AX65" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:50" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="1:50" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>56</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="B66" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="24">
         <v>1988</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66">
+      <c r="H66" s="24">
+        <v>1</v>
+      </c>
+      <c r="I66" s="24">
         <v>2</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="24">
         <v>4</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L66" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="24">
         <v>2</v>
       </c>
-      <c r="O66">
-        <v>1</v>
-      </c>
-      <c r="P66">
-        <v>1</v>
-      </c>
-      <c r="Q66">
+      <c r="O66" s="24">
+        <v>1</v>
+      </c>
+      <c r="P66" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="24">
         <v>65.517240000000001</v>
       </c>
-      <c r="R66" t="s">
+      <c r="R66" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S66">
+      <c r="S66" s="24">
         <v>5.7931033999999899</v>
       </c>
-      <c r="T66" t="s">
-        <v>98</v>
-      </c>
-      <c r="U66">
+      <c r="T66" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U66" s="24">
         <v>4</v>
       </c>
-      <c r="V66">
+      <c r="V66" s="24">
         <v>67.448279999999897</v>
       </c>
-      <c r="W66" t="s">
+      <c r="W66" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="X66">
+      <c r="X66" s="24">
         <v>1.6723249</v>
       </c>
-      <c r="Y66" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z66">
+      <c r="Y66" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z66" s="24">
         <v>3</v>
       </c>
-      <c r="AA66" s="10" t="s">
+      <c r="AA66" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AB66" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AC66" t="s">
+      <c r="AC66" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AD66" t="s">
+      <c r="AD66" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="AE66">
-        <v>1</v>
-      </c>
-      <c r="AF66" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG66" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH66" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI66" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ66" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK66" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL66" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM66" t="s">
+      <c r="AE66" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF66" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG66" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH66" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI66" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ66" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK66" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL66" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM66" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AN66" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO66" t="s">
+      <c r="AN66" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO66" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AP66" t="s">
+      <c r="AP66" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AQ66" s="14" t="s">
+      <c r="AQ66" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="AR66" t="s">
+      <c r="AR66" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AS66" s="14" t="s">
+      <c r="AS66" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="AT66" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU66" t="s">
+      <c r="AT66" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU66" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AV66" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW66">
+      <c r="AV66" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW66" s="24">
         <v>2</v>
       </c>
-      <c r="AX66">
+      <c r="AX66" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:50" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:50" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>56</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="B67" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="24">
         <v>1988</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
+      <c r="H67" s="24">
+        <v>1</v>
+      </c>
+      <c r="I67" s="24">
         <v>2</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="24">
         <v>5</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>1</v>
-      </c>
-      <c r="P67">
-        <v>1</v>
-      </c>
-      <c r="Q67">
+      <c r="N67" s="24">
+        <v>1</v>
+      </c>
+      <c r="O67" s="24">
+        <v>1</v>
+      </c>
+      <c r="P67" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="24">
         <v>65.517240000000001</v>
       </c>
-      <c r="R67" t="s">
+      <c r="R67" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S67">
+      <c r="S67" s="24">
         <v>5.7931033999999899</v>
       </c>
-      <c r="T67" t="s">
-        <v>98</v>
-      </c>
-      <c r="U67">
+      <c r="T67" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U67" s="24">
         <v>4</v>
       </c>
-      <c r="V67">
+      <c r="V67" s="24">
         <v>62.620690000000003</v>
       </c>
-      <c r="W67" t="s">
+      <c r="W67" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="X67">
+      <c r="X67" s="24">
         <v>4.3448276000000003</v>
       </c>
-      <c r="Y67" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z67">
-        <v>1</v>
-      </c>
-      <c r="AA67" s="10" t="s">
+      <c r="Y67" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z67" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AB67" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AC67" t="s">
+      <c r="AC67" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AD67" t="s">
+      <c r="AD67" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="AE67">
-        <v>1</v>
-      </c>
-      <c r="AF67" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH67" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI67" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ67" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK67" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL67" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM67" t="s">
+      <c r="AE67" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF67" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG67" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH67" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI67" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ67" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK67" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL67" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM67" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AN67" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO67" t="s">
+      <c r="AN67" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO67" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AP67" t="s">
+      <c r="AP67" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AQ67" s="14" t="s">
+      <c r="AQ67" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="AR67" t="s">
+      <c r="AR67" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AS67" s="14" t="s">
+      <c r="AS67" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="AT67" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU67" t="s">
+      <c r="AT67" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU67" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AV67" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW67">
+      <c r="AV67" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW67" s="24">
         <v>2</v>
       </c>
-      <c r="AX67">
+      <c r="AX67" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:50" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="68" spans="1:50" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
-        <v>56</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="B68" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="24">
         <v>1988</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68">
+      <c r="H68" s="24">
+        <v>1</v>
+      </c>
+      <c r="I68" s="24">
         <v>2</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="24">
         <v>6</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="24">
         <v>3</v>
       </c>
-      <c r="O68">
-        <v>1</v>
-      </c>
-      <c r="P68">
-        <v>1</v>
-      </c>
-      <c r="Q68">
+      <c r="O68" s="24">
+        <v>1</v>
+      </c>
+      <c r="P68" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="24">
         <v>67.448279999999897</v>
       </c>
-      <c r="R68" t="s">
+      <c r="R68" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S68">
+      <c r="S68" s="24">
         <v>1.6723249</v>
       </c>
-      <c r="T68" t="s">
-        <v>98</v>
-      </c>
-      <c r="U68">
+      <c r="T68" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U68" s="24">
         <v>3</v>
       </c>
-      <c r="V68">
+      <c r="V68" s="24">
         <v>62.620690000000003</v>
       </c>
-      <c r="W68" t="s">
+      <c r="W68" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="X68">
+      <c r="X68" s="24">
         <v>4.3448276000000003</v>
       </c>
-      <c r="Y68" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z68">
-        <v>1</v>
-      </c>
-      <c r="AA68" s="10" t="s">
+      <c r="Y68" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z68" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AB68" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AC68" t="s">
+      <c r="AC68" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AD68" t="s">
+      <c r="AD68" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="AE68">
-        <v>1</v>
-      </c>
-      <c r="AF68" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH68" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI68" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ68" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK68" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL68" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM68" t="s">
+      <c r="AE68" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF68" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG68" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH68" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI68" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ68" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK68" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL68" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM68" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AN68" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO68" t="s">
+      <c r="AN68" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO68" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AP68" t="s">
+      <c r="AP68" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AR68" t="s">
+      <c r="AR68" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AS68" s="14" t="s">
+      <c r="AS68" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="AT68" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU68" t="s">
+      <c r="AT68" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU68" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AV68" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW68">
+      <c r="AV68" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW68" s="24">
         <v>2</v>
       </c>
-      <c r="AX68">
+      <c r="AX68" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:50" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="69" spans="1:50" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>56</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="B69" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="24">
         <v>1988</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69">
+      <c r="H69" s="24">
+        <v>1</v>
+      </c>
+      <c r="I69" s="24">
         <v>2</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="24">
         <v>4</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L69" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="24">
         <v>2</v>
       </c>
-      <c r="O69">
-        <v>1</v>
-      </c>
-      <c r="P69">
-        <v>1</v>
-      </c>
-      <c r="Q69">
+      <c r="O69" s="24">
+        <v>1</v>
+      </c>
+      <c r="P69" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="24">
         <v>71.793099999999896</v>
       </c>
-      <c r="R69" t="s">
+      <c r="R69" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S69">
+      <c r="S69" s="24">
         <v>2.8965516999999901</v>
       </c>
-      <c r="T69" t="s">
-        <v>98</v>
-      </c>
-      <c r="U69">
+      <c r="T69" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U69" s="24">
         <v>4</v>
       </c>
-      <c r="V69">
+      <c r="V69" s="24">
         <v>72.758619999999894</v>
       </c>
-      <c r="W69" t="s">
+      <c r="W69" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="X69">
+      <c r="X69" s="24">
         <v>2.5084873999999902</v>
       </c>
-      <c r="Y69" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z69">
+      <c r="Y69" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z69" s="24">
         <v>3</v>
       </c>
-      <c r="AA69" s="10" t="s">
+      <c r="AA69" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AB69" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AC69" t="s">
+      <c r="AC69" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AD69" t="s">
+      <c r="AD69" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="AE69">
-        <v>1</v>
-      </c>
-      <c r="AF69" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG69" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH69" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI69" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ69" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK69" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL69" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM69" t="s">
+      <c r="AE69" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF69" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG69" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH69" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI69" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ69" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK69" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL69" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM69" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AN69" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO69" t="s">
+      <c r="AN69" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO69" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AP69" t="s">
+      <c r="AP69" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AQ69" s="14" t="s">
+      <c r="AQ69" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="AR69" t="s">
+      <c r="AR69" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AS69" s="14" t="s">
+      <c r="AS69" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="AT69" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU69" t="s">
+      <c r="AT69" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU69" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AV69" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW69">
+      <c r="AV69" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW69" s="24">
         <v>2</v>
       </c>
-      <c r="AX69">
+      <c r="AX69" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:50" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="70" spans="1:50" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>56</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="B70" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="24">
         <v>1988</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
+      <c r="H70" s="24">
+        <v>1</v>
+      </c>
+      <c r="I70" s="24">
         <v>2</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="24">
         <v>5</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L70" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>1</v>
-      </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-      <c r="Q70">
+      <c r="N70" s="24">
+        <v>1</v>
+      </c>
+      <c r="O70" s="24">
+        <v>1</v>
+      </c>
+      <c r="P70" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="24">
         <v>71.793099999999896</v>
       </c>
-      <c r="R70" t="s">
+      <c r="R70" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S70">
+      <c r="S70" s="24">
         <v>2.8965516999999901</v>
       </c>
-      <c r="T70" t="s">
-        <v>98</v>
-      </c>
-      <c r="U70">
+      <c r="T70" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U70" s="24">
         <v>4</v>
       </c>
-      <c r="V70">
+      <c r="V70" s="24">
         <v>80.965519999999898</v>
       </c>
-      <c r="W70" t="s">
+      <c r="W70" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="X70">
+      <c r="X70" s="24">
         <v>3.3793103000000002</v>
       </c>
-      <c r="Y70" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z70">
-        <v>1</v>
-      </c>
-      <c r="AA70" s="10" t="s">
+      <c r="Y70" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z70" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA70" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AB70" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AC70" t="s">
+      <c r="AC70" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AD70" t="s">
+      <c r="AD70" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="AE70">
-        <v>1</v>
-      </c>
-      <c r="AF70" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG70" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH70" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI70" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ70" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK70" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL70" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM70" t="s">
+      <c r="AE70" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF70" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG70" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH70" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI70" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ70" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK70" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL70" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM70" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AN70" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO70" t="s">
+      <c r="AN70" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO70" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AP70" t="s">
+      <c r="AP70" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AQ70" s="14" t="s">
+      <c r="AQ70" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="AR70" t="s">
+      <c r="AR70" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AS70" s="14" t="s">
+      <c r="AS70" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="AT70" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU70" t="s">
+      <c r="AT70" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU70" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AV70" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW70">
+      <c r="AV70" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW70" s="24">
         <v>2</v>
       </c>
-      <c r="AX70">
+      <c r="AX70" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:50" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="71" spans="1:50" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
-        <v>56</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="B71" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="24">
         <v>1988</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71">
+      <c r="H71" s="24">
+        <v>1</v>
+      </c>
+      <c r="I71" s="24">
         <v>2</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="24">
         <v>6</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K71" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L71" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="24">
         <v>3</v>
       </c>
-      <c r="O71">
-        <v>1</v>
-      </c>
-      <c r="P71">
-        <v>1</v>
-      </c>
-      <c r="Q71">
+      <c r="O71" s="24">
+        <v>1</v>
+      </c>
+      <c r="P71" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="24">
         <v>72.758619999999894</v>
       </c>
-      <c r="R71" t="s">
+      <c r="R71" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S71">
+      <c r="S71" s="24">
         <v>2.5084873999999902</v>
       </c>
-      <c r="T71" t="s">
-        <v>98</v>
-      </c>
-      <c r="U71">
+      <c r="T71" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U71" s="24">
         <v>3</v>
       </c>
-      <c r="V71">
+      <c r="V71" s="24">
         <v>80.965519999999898</v>
       </c>
-      <c r="W71" t="s">
+      <c r="W71" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="X71">
+      <c r="X71" s="24">
         <v>3.3793103000000002</v>
       </c>
-      <c r="Y71" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z71">
-        <v>1</v>
-      </c>
-      <c r="AA71" s="10" t="s">
+      <c r="Y71" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z71" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA71" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AB71" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AC71" t="s">
+      <c r="AC71" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AD71" t="s">
+      <c r="AD71" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="AE71">
-        <v>1</v>
-      </c>
-      <c r="AF71" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH71" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI71" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ71" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK71" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL71" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM71" t="s">
+      <c r="AE71" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF71" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG71" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH71" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI71" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ71" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK71" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL71" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM71" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AN71" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO71" t="s">
+      <c r="AN71" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO71" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AP71" t="s">
+      <c r="AP71" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AR71" t="s">
+      <c r="AR71" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AS71" s="14" t="s">
+      <c r="AS71" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="AT71" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU71" t="s">
+      <c r="AT71" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU71" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AV71" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW71">
+      <c r="AV71" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW71" s="24">
         <v>2</v>
       </c>
-      <c r="AX71">
+      <c r="AX71" s="24">
         <v>2</v>
       </c>
     </row>
@@ -13190,7 +13202,7 @@
         <v>92</v>
       </c>
       <c r="N72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -13342,7 +13354,7 @@
         <v>95</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O73">
         <v>0</v>
@@ -13643,7 +13655,7 @@
         <v>92</v>
       </c>
       <c r="N75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -13795,7 +13807,7 @@
         <v>95</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -14096,7 +14108,7 @@
         <v>92</v>
       </c>
       <c r="N78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -14248,7 +14260,7 @@
         <v>95</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -14549,7 +14561,7 @@
         <v>92</v>
       </c>
       <c r="N81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -14701,7 +14713,7 @@
         <v>95</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -16814,7 +16826,7 @@
         <v>92</v>
       </c>
       <c r="N96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O96">
         <v>1</v>
@@ -16966,7 +16978,7 @@
         <v>95</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O97">
         <v>1</v>
@@ -17267,7 +17279,7 @@
         <v>92</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O99">
         <v>1</v>
@@ -17419,7 +17431,7 @@
         <v>95</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O100">
         <v>1</v>
@@ -17720,7 +17732,7 @@
         <v>92</v>
       </c>
       <c r="N102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O102">
         <v>1</v>
@@ -17872,7 +17884,7 @@
         <v>95</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O103">
         <v>1</v>
